--- a/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
+++ b/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACCELR_internship\github\tflite-perf-tests\object_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB84EA1-DBB0-4DDF-9748-EEB0CD5CC0D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1630A1D6-5370-4993-883F-DDFD6401BDBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="32">
   <si>
     <t>TFLITE-COMPARISON</t>
   </si>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -154,8 +154,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,12 +183,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,13 +271,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -218,7 +293,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -234,30 +308,61 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,8 +584,8 @@
   </sheetPr>
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -495,53 +600,60 @@
     <col min="15" max="15" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="18" t="s">
         <v>29</v>
       </c>
@@ -554,961 +666,1084 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="18" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="18" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="21" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="21" t="s">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="20" t="s">
+      <c r="S5" s="14"/>
+      <c r="T5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="7" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="7" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>8.5198999999999998</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>8.9611999999999998</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>8.7563999999999993</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>8.9234000000000009</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>9.1134000000000004</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>8.9818999999999996</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="9">
+      <c r="J7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7">
+        <v>16.304400000000001</v>
+      </c>
+      <c r="M7" s="7">
+        <v>16.486599999999999</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7">
         <v>19.936</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="7">
         <v>19.9146</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="7">
         <v>18.751799999999999</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="7">
         <v>18.9176</v>
       </c>
-      <c r="T7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="8" t="s">
+      <c r="T7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>3.6566000000000001</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>4.0309999999999997</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>3.8466999999999998</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>4.0617999999999999</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>3.8940999999999999</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>3.9441000000000002</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="9">
+      <c r="J8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7">
+        <v>6.891</v>
+      </c>
+      <c r="M8" s="7">
+        <v>7.4348000000000001</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="7">
         <v>8.7937999999999992</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="7">
         <v>8.7248999999999999</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="7">
         <v>8.3080999999999996</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="7">
         <v>7.8689999999999998</v>
       </c>
-      <c r="T8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="U8" s="8" t="s">
+      <c r="T8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6">
         <v>0.63749999999999996</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>0.66039999999999999</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>0.64849999999999997</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>0.64410000000000001</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8">
+      <c r="J9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="6">
         <v>1.1909000000000001</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="6">
         <v>1.1753</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="7">
         <v>1.1060000000000001</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="7">
         <v>1.1094999999999999</v>
       </c>
-      <c r="T9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="U9" s="8" t="s">
+      <c r="T9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8">
         <v>0.70589999999999997</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>0.71789999999999998</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>0.71660000000000001</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>0.73299999999999998</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8">
+      <c r="J10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="6">
         <v>1.4504999999999999</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="6">
         <v>1.3288</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="7">
         <v>1.3798999999999999</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="7">
         <v>1.294</v>
       </c>
-      <c r="T10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="U10" s="8" t="s">
+      <c r="T10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6">
         <v>1.9638</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>1.9446000000000001</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>1.8580000000000001</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>1.8012999999999999</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8">
+      <c r="J11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="6">
         <v>4.8159999999999998</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="6">
         <v>4.3872</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="7">
         <v>4.4539999999999997</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="7">
         <v>4.1999000000000004</v>
       </c>
-      <c r="T11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="8" t="s">
+      <c r="T11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6">
         <v>2.2877000000000001</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>2.238</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <v>2.3487</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>2.3607</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="11">
+      <c r="J12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="9">
         <v>5.6670999999999996</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="6">
         <v>5.1318999999999999</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="7">
         <v>5.3026999999999997</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="7">
         <v>4.9962999999999997</v>
       </c>
-      <c r="T12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
+      <c r="T12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>11.8931</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>12.122400000000001</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12">
         <v>12.7692</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>12.327500000000001</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <v>12.488799999999999</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <v>11.545500000000001</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14">
+      <c r="J13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="12">
+        <v>14.611000000000001</v>
+      </c>
+      <c r="M13" s="12">
+        <v>15.1486</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="12">
         <v>15.7567</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="12">
         <v>14.2964</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="12">
         <v>14.9931</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="12">
         <v>13.837400000000001</v>
       </c>
-      <c r="T13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="13" t="s">
+      <c r="T13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6">
         <v>0.26850000000000002</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <v>0.25269999999999998</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>0.26429999999999998</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>0.25650000000000001</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8">
+      <c r="J14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="6">
         <v>0.2974</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="6">
         <v>0.27250000000000002</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="7">
         <v>0.29680000000000001</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="7">
         <v>0.27600000000000002</v>
       </c>
-      <c r="T14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="U14" s="8" t="s">
+      <c r="T14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="10">
         <v>0.11020000000000001</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>0.1076</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>0.1013</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8">
+      <c r="J15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="6">
         <v>0.1103</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="6">
         <v>0.1087</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="7">
         <v>0.1164</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="7">
         <v>0.1111</v>
       </c>
-      <c r="T15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="8" t="s">
+      <c r="T15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="34">
         <v>15.230700000000001</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>15.8794</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="38">
         <v>15.3744</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="34">
         <v>15.2136</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="34">
         <v>15.010300000000001</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="34">
         <v>14.070600000000001</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14">
+      <c r="J16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="12">
+        <v>18.652899999999999</v>
+      </c>
+      <c r="M16" s="12">
+        <v>19.4072</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="34">
         <v>19.525500000000001</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="38">
         <v>19.202500000000001</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="12">
         <v>17.069099999999999</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="34">
         <v>18.8599</v>
       </c>
-      <c r="T16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="13" t="s">
+      <c r="T16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="32">
         <v>14.939500000000001</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="37">
         <v>15.9551</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="17">
+      <c r="D17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="33">
         <v>13.662800000000001</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="32">
         <v>13.752000000000001</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="32">
         <v>13.3429</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="32">
         <v>13.536799999999999</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="16">
+      <c r="J17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="35">
+        <v>18.9712</v>
+      </c>
+      <c r="M17" s="37">
+        <v>19.6126</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="32">
         <v>18.937200000000001</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="32">
         <v>19.0989</v>
       </c>
-      <c r="R17" s="16">
+      <c r="R17" s="35">
         <v>17.856100000000001</v>
       </c>
-      <c r="S17" s="16">
+      <c r="S17" s="32">
         <v>17.753299999999999</v>
       </c>
-      <c r="T17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="15" t="s">
+      <c r="T17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="7">
         <v>12.8</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>13.0855</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <v>11.4129</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <v>13.067500000000001</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="7">
         <v>12.104699999999999</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="7">
         <v>10.985099999999999</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="9">
+      <c r="L18" s="7">
+        <v>16.796800000000001</v>
+      </c>
+      <c r="M18" s="7">
+        <v>16.9024</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7">
         <v>15.630100000000001</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="7">
         <v>14.213900000000001</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="7">
         <v>15.605600000000001</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="7">
         <v>14.2798</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="T18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U18" s="8" t="s">
+      <c r="U18" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>14.7342</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>15.1958</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="9" t="s">
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="7">
+        <v>18.772400000000001</v>
+      </c>
+      <c r="M19" s="7">
+        <v>19.378299999999999</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q19" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="S19" s="9"/>
-      <c r="T19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="U19" s="8" t="s">
+      <c r="R19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U19" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <v>31.8306</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>32.3917</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <v>34.744</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <v>37.397399999999998</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <v>28.7925</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <v>28.678000000000001</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="9">
+      <c r="J20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7">
+        <v>36.867600000000003</v>
+      </c>
+      <c r="M20" s="7">
+        <v>38.462299999999999</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="7">
         <v>47.109900000000003</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="7">
         <v>35.758699999999997</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="36">
         <v>53.032899999999998</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="6">
         <v>40.878900000000002</v>
       </c>
-      <c r="T20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="U20" s="8" t="s">
+      <c r="T20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="M21" s="2"/>
-      <c r="O21" s="3"/>
+      <c r="M21" s="1"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:U3"/>
+    <mergeCell ref="P4:U4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -1517,19 +1752,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:U3"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
+++ b/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACCELR_internship\github\tflite-perf-tests\object_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1630A1D6-5370-4993-883F-DDFD6401BDBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9EF995-AAED-4257-971D-65D514D64868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,40 +308,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -363,6 +331,38 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,8 +584,8 @@
   </sheetPr>
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -601,208 +601,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
     </row>
     <row r="3" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="20" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="22" t="s">
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="24"/>
+      <c r="J5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="13" t="s">
+      <c r="Q5" s="24"/>
+      <c r="R5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="15" t="s">
+      <c r="S5" s="24"/>
+      <c r="T5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="27" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="27" t="s">
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="26" t="s">
+      <c r="S6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1392,7 +1392,7 @@
       <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="18">
         <v>15.230700000000001</v>
       </c>
       <c r="C16" s="12">
@@ -1404,16 +1404,16 @@
       <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="22">
         <v>15.3744</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="18">
         <v>15.2136</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="18">
         <v>15.010300000000001</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="18">
         <v>14.070600000000001</v>
       </c>
       <c r="J16" s="11" t="s">
@@ -1434,16 +1434,16 @@
       <c r="O16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P16" s="34">
+      <c r="P16" s="18">
         <v>19.525500000000001</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="Q16" s="22">
         <v>19.202500000000001</v>
       </c>
       <c r="R16" s="12">
         <v>17.069099999999999</v>
       </c>
-      <c r="S16" s="34">
+      <c r="S16" s="18">
         <v>18.8599</v>
       </c>
       <c r="T16" s="11" t="s">
@@ -1454,67 +1454,67 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="16">
         <v>14.939500000000001</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="21">
         <v>15.9551</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="33">
+      <c r="D17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="17">
         <v>13.662800000000001</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="16">
         <v>13.752000000000001</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="16">
         <v>13.3429</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="16">
         <v>13.536799999999999</v>
       </c>
-      <c r="J17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="35">
+      <c r="J17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="19">
         <v>18.9712</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="21">
         <v>19.6126</v>
       </c>
-      <c r="N17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="32">
+      <c r="N17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="16">
         <v>18.937200000000001</v>
       </c>
-      <c r="Q17" s="32">
+      <c r="Q17" s="16">
         <v>19.0989</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17" s="19">
         <v>17.856100000000001</v>
       </c>
-      <c r="S17" s="32">
+      <c r="S17" s="16">
         <v>17.753299999999999</v>
       </c>
-      <c r="T17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="31" t="s">
+      <c r="T17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       <c r="Q20" s="7">
         <v>35.758699999999997</v>
       </c>
-      <c r="R20" s="36">
+      <c r="R20" s="20">
         <v>53.032899999999998</v>
       </c>
       <c r="S20" s="6">
@@ -1727,6 +1727,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:K4"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
@@ -1743,15 +1752,6 @@
     <mergeCell ref="P4:U4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
+++ b/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACCELR_internship\github\tflite-perf-tests\object_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9EF995-AAED-4257-971D-65D514D64868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BA9147-9799-46D6-A714-53C7C9F3A6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,12 +177,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -213,38 +207,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -304,25 +304,57 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -331,38 +363,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,8 +584,8 @@
   </sheetPr>
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -601,208 +601,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
     </row>
     <row r="3" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="36" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="31" t="s">
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="36" t="s">
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="23" t="s">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="24"/>
-      <c r="T5" s="25" t="s">
+      <c r="S5" s="14"/>
+      <c r="T5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="14" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="14" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1194,67 +1194,67 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="30">
         <v>11.8931</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="30">
         <v>12.122400000000001</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="D13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="30">
         <v>12.7692</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="30">
         <v>12.327500000000001</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="30">
         <v>12.488799999999999</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="30">
         <v>11.545500000000001</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="J13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="30">
         <v>14.611000000000001</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="30">
         <v>15.1486</v>
       </c>
-      <c r="N13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="12">
+      <c r="N13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="30">
         <v>15.7567</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="30">
         <v>14.2964</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="30">
         <v>14.9931</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="30">
         <v>13.837400000000001</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="11" t="s">
+      <c r="T13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="29" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1389,132 +1389,132 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="31">
         <v>15.230700000000001</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="30">
         <v>15.8794</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="22">
+      <c r="D16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="36">
         <v>15.3744</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="31">
         <v>15.2136</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="31">
         <v>15.010300000000001</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="31">
         <v>14.070600000000001</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="12">
+      <c r="J16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="30">
         <v>18.652899999999999</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="30">
         <v>19.4072</v>
       </c>
-      <c r="N16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="18">
+      <c r="N16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="31">
         <v>19.525500000000001</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="Q16" s="36">
         <v>19.202500000000001</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="30">
         <v>17.069099999999999</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S16" s="31">
         <v>18.8599</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="11" t="s">
+      <c r="T16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="34">
         <v>14.939500000000001</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="37">
         <v>15.9551</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="17">
+      <c r="D17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="35">
         <v>13.662800000000001</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="34">
         <v>13.752000000000001</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="34">
         <v>13.3429</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="34">
         <v>13.536799999999999</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="19">
+      <c r="J17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="32">
         <v>18.9712</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="37">
         <v>19.6126</v>
       </c>
-      <c r="N17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="16">
+      <c r="N17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="34">
         <v>18.937200000000001</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="34">
         <v>19.0989</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="32">
         <v>17.856100000000001</v>
       </c>
-      <c r="S17" s="16">
+      <c r="S17" s="34">
         <v>17.753299999999999</v>
       </c>
-      <c r="T17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="15" t="s">
+      <c r="T17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       <c r="Q20" s="7">
         <v>35.758699999999997</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="38">
         <v>53.032899999999998</v>
       </c>
       <c r="S20" s="6">
@@ -1727,15 +1727,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:K4"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
@@ -1752,6 +1743,15 @@
     <mergeCell ref="P4:U4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
+++ b/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACCELR_internship\github\tflite-perf-tests\object_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BA9147-9799-46D6-A714-53C7C9F3A6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53771087-FCCC-44C1-9E88-901F83A861D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="156" windowWidth="11724" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="38">
   <si>
     <t>TFLITE-COMPARISON</t>
   </si>
@@ -116,13 +116,43 @@
   </si>
   <si>
     <t>10. example (they given for CPP)</t>
+  </si>
+  <si>
+    <t>ssd_mobilenet_v1_default_model</t>
+  </si>
+  <si>
+    <t>coco_ssd_mobilenet_v1_1_model</t>
+  </si>
+  <si>
+    <t>IOU=0.50:0.95</t>
+  </si>
+  <si>
+    <t>IOU=0.50</t>
+  </si>
+  <si>
+    <t>IOU=0.75</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AVERAGE PRECISION- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BASELINES</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -158,6 +188,25 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -284,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -306,64 +355,72 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +639,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="65" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -601,176 +658,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
     </row>
     <row r="3" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="21" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23" t="s">
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="24"/>
+      <c r="J5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="20" t="s">
+      <c r="Q5" s="24"/>
+      <c r="R5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="13" t="s">
+      <c r="S5" s="24"/>
+      <c r="T5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
@@ -783,12 +840,12 @@
       <c r="I6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
       <c r="P6" s="12" t="s">
         <v>5</v>
       </c>
@@ -801,8 +858,8 @@
       <c r="S6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1194,67 +1251,67 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="14">
         <v>11.8931</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="14">
         <v>12.122400000000001</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="30">
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="14">
         <v>12.7692</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="14">
         <v>12.327500000000001</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="14">
         <v>12.488799999999999</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="14">
         <v>11.545500000000001</v>
       </c>
-      <c r="J13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="30">
+      <c r="J13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="14">
         <v>14.611000000000001</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13" s="14">
         <v>15.1486</v>
       </c>
-      <c r="N13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="30">
+      <c r="N13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="14">
         <v>15.7567</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="14">
         <v>14.2964</v>
       </c>
-      <c r="R13" s="30">
+      <c r="R13" s="14">
         <v>14.9931</v>
       </c>
-      <c r="S13" s="30">
+      <c r="S13" s="14">
         <v>13.837400000000001</v>
       </c>
-      <c r="T13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="29" t="s">
+      <c r="T13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1389,132 +1446,132 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="15">
         <v>15.230700000000001</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="14">
         <v>15.8794</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="36">
+      <c r="D16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="20">
         <v>15.3744</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="15">
         <v>15.2136</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="15">
         <v>15.010300000000001</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="15">
         <v>14.070600000000001</v>
       </c>
-      <c r="J16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="30">
+      <c r="J16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="14">
         <v>18.652899999999999</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="14">
         <v>19.4072</v>
       </c>
-      <c r="N16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="31">
+      <c r="N16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="15">
         <v>19.525500000000001</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="20">
         <v>19.202500000000001</v>
       </c>
-      <c r="R16" s="30">
+      <c r="R16" s="14">
         <v>17.069099999999999</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="15">
         <v>18.8599</v>
       </c>
-      <c r="T16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="29" t="s">
+      <c r="T16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="18">
         <v>14.939500000000001</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="21">
         <v>15.9551</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="35">
+      <c r="D17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="19">
         <v>13.662800000000001</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="18">
         <v>13.752000000000001</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="18">
         <v>13.3429</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="18">
         <v>13.536799999999999</v>
       </c>
-      <c r="J17" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="32">
+      <c r="J17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="16">
         <v>18.9712</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="21">
         <v>19.6126</v>
       </c>
-      <c r="N17" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="34">
+      <c r="N17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="18">
         <v>18.937200000000001</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="18">
         <v>19.0989</v>
       </c>
-      <c r="R17" s="32">
+      <c r="R17" s="16">
         <v>17.856100000000001</v>
       </c>
-      <c r="S17" s="34">
+      <c r="S17" s="18">
         <v>17.753299999999999</v>
       </c>
-      <c r="T17" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="33" t="s">
+      <c r="T17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1698,7 +1755,7 @@
       <c r="Q20" s="7">
         <v>35.758699999999997</v>
       </c>
-      <c r="R20" s="38">
+      <c r="R20" s="22">
         <v>53.032899999999998</v>
       </c>
       <c r="S20" s="6">
@@ -1725,8 +1782,157 @@
         <v>28</v>
       </c>
     </row>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.186</v>
+      </c>
+      <c r="D28">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="D29">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>0.111</v>
+      </c>
+      <c r="C37">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38">
+        <v>0.111</v>
+      </c>
+      <c r="C38">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D38">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>1E-3</v>
+      </c>
+      <c r="C41">
+        <v>1E-3</v>
+      </c>
+      <c r="D41">
+        <v>1E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:K4"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
@@ -1743,16 +1949,8 @@
     <mergeCell ref="P4:U4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
+++ b/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACCELR_internship\github\tflite-perf-tests\object_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53771087-FCCC-44C1-9E88-901F83A861D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED8781-A317-4437-A3D9-59C84F082C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="156" windowWidth="11724" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="42">
   <si>
     <t>TFLITE-COMPARISON</t>
   </si>
@@ -147,12 +147,24 @@
       <t>BASELINES</t>
     </r>
   </si>
+  <si>
+    <t>*add Dynamic, Static, etc</t>
+  </si>
+  <si>
+    <t>* check tf models metric</t>
+  </si>
+  <si>
+    <t>mAP</t>
+  </si>
+  <si>
+    <t>* check model ZOO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -210,8 +222,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +333,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -329,11 +378,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -381,22 +467,57 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -406,21 +527,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +752,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="65" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="74" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -650,218 +763,331 @@
     <col min="1" max="1" width="48.44140625" customWidth="1"/>
     <col min="2" max="2" width="19.109375" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
+    <col min="10" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="17" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" customWidth="1"/>
+    <col min="19" max="22" width="13.88671875" customWidth="1"/>
+    <col min="23" max="23" width="12.77734375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="25" max="28" width="14.44140625" customWidth="1"/>
+    <col min="32" max="33" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:36" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+    </row>
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-    </row>
-    <row r="3" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="34" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+    </row>
+    <row r="3" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="31" t="s">
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+    </row>
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="36" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="31" t="s">
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="36" t="s">
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="27" t="s">
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="H5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="I5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25" t="s">
+      <c r="L5" s="33"/>
+      <c r="M5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="Q5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="R5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="S5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="T5" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="45"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="X5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="Y5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="23" t="s">
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="24"/>
-      <c r="T5" s="25" t="s">
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="AG5" s="32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="12" t="s">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="12" t="s">
+      <c r="M6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Z6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="AA6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="AB6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+    </row>
+    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -871,62 +1097,79 @@
       <c r="C7" s="7">
         <v>8.9611999999999998</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7">
+      <c r="I7" s="7">
         <v>8.7563999999999993</v>
       </c>
-      <c r="G7" s="7">
+      <c r="J7" s="7">
         <v>8.9234000000000009</v>
       </c>
-      <c r="H7" s="7">
+      <c r="K7" s="7">
         <v>9.1134000000000004</v>
       </c>
-      <c r="I7" s="7">
+      <c r="L7" s="7">
         <v>8.9818999999999996</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="7">
         <v>16.304400000000001</v>
       </c>
-      <c r="M7" s="7">
+      <c r="S7" s="7">
         <v>16.486599999999999</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="6" t="s">
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Y7" s="7">
         <v>19.936</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Z7" s="7">
         <v>19.9146</v>
       </c>
-      <c r="R7" s="7">
+      <c r="AA7" s="7">
         <v>18.751799999999999</v>
       </c>
-      <c r="S7" s="7">
+      <c r="AB7" s="7">
         <v>18.9176</v>
       </c>
-      <c r="T7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC7" s="7">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -936,62 +1179,80 @@
       <c r="C8" s="7">
         <v>4.0309999999999997</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="7">
+      <c r="I8" s="7">
         <v>3.8466999999999998</v>
       </c>
-      <c r="G8" s="7">
+      <c r="J8" s="7">
         <v>4.0617999999999999</v>
       </c>
-      <c r="H8" s="7">
+      <c r="K8" s="7">
         <v>3.8940999999999999</v>
       </c>
-      <c r="I8" s="7">
+      <c r="L8" s="7">
         <v>3.9441000000000002</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="7">
         <v>6.891</v>
       </c>
-      <c r="M8" s="7">
+      <c r="S8" s="7">
         <v>7.4348000000000001</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="6" t="s">
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Y8" s="7">
         <v>8.7937999999999992</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Z8" s="7">
         <v>8.7248999999999999</v>
       </c>
-      <c r="R8" s="7">
+      <c r="AA8" s="7">
         <v>8.3080999999999996</v>
       </c>
-      <c r="S8" s="7">
+      <c r="AB8" s="7">
         <v>7.8689999999999998</v>
       </c>
-      <c r="T8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC8" s="7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0.223</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1001,62 +1262,80 @@
       <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="6">
         <v>0.63749999999999996</v>
       </c>
-      <c r="G9" s="6">
+      <c r="J9" s="6">
         <v>0.66039999999999999</v>
       </c>
-      <c r="H9" s="7">
+      <c r="K9" s="7">
         <v>0.64849999999999997</v>
       </c>
-      <c r="I9" s="7">
+      <c r="L9" s="7">
         <v>0.64410000000000001</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" s="6">
         <v>1.1909000000000001</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Z9" s="6">
         <v>1.1753</v>
       </c>
-      <c r="R9" s="7">
+      <c r="AA9" s="7">
         <v>1.1060000000000001</v>
       </c>
-      <c r="S9" s="7">
+      <c r="AB9" s="7">
         <v>1.1094999999999999</v>
       </c>
-      <c r="T9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC9" s="7">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0.155</v>
+      </c>
+      <c r="AF9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1067,57 +1346,75 @@
         <v>16</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8">
         <v>0.70589999999999997</v>
       </c>
-      <c r="G10" s="6">
+      <c r="J10" s="6">
         <v>0.71789999999999998</v>
       </c>
-      <c r="H10" s="7">
+      <c r="K10" s="7">
         <v>0.71660000000000001</v>
       </c>
-      <c r="I10" s="7">
+      <c r="L10" s="7">
         <v>0.73299999999999998</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y10" s="6">
         <v>1.4504999999999999</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Z10" s="6">
         <v>1.3288</v>
       </c>
-      <c r="R10" s="7">
+      <c r="AA10" s="7">
         <v>1.3798999999999999</v>
       </c>
-      <c r="S10" s="7">
+      <c r="AB10" s="7">
         <v>1.294</v>
       </c>
-      <c r="T10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC10" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>0.151</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1127,62 +1424,80 @@
       <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="6">
         <v>1.9638</v>
       </c>
-      <c r="G11" s="6">
+      <c r="J11" s="6">
         <v>1.9446000000000001</v>
       </c>
-      <c r="H11" s="7">
+      <c r="K11" s="7">
         <v>1.8580000000000001</v>
       </c>
-      <c r="I11" s="7">
+      <c r="L11" s="7">
         <v>1.8012999999999999</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y11" s="6">
         <v>4.8159999999999998</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Z11" s="6">
         <v>4.3872</v>
       </c>
-      <c r="R11" s="7">
+      <c r="AA11" s="7">
         <v>4.4539999999999997</v>
       </c>
-      <c r="S11" s="7">
+      <c r="AB11" s="7">
         <v>4.1999000000000004</v>
       </c>
-      <c r="T11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC11" s="7">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AF11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1192,65 +1507,83 @@
       <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="6">
         <v>2.2877000000000001</v>
       </c>
-      <c r="G12" s="6">
+      <c r="J12" s="6">
         <v>2.238</v>
       </c>
-      <c r="H12" s="7">
+      <c r="K12" s="7">
         <v>2.3487</v>
       </c>
-      <c r="I12" s="7">
+      <c r="L12" s="7">
         <v>2.3607</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="9">
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y12" s="9">
         <v>5.6670999999999996</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Z12" s="6">
         <v>5.1318999999999999</v>
       </c>
-      <c r="R12" s="7">
+      <c r="AA12" s="7">
         <v>5.3026999999999997</v>
       </c>
-      <c r="S12" s="7">
+      <c r="AB12" s="7">
         <v>4.9962999999999997</v>
       </c>
-      <c r="T12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC12" s="7">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>0.108</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+    </row>
+    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
@@ -1260,62 +1593,98 @@
       <c r="C13" s="14">
         <v>12.122400000000001</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="D13" s="51">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E13" s="51">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F13" s="51">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="14">
         <v>12.7692</v>
       </c>
-      <c r="G13" s="14">
+      <c r="J13" s="14">
         <v>12.327500000000001</v>
       </c>
-      <c r="H13" s="14">
+      <c r="K13" s="14">
         <v>12.488799999999999</v>
       </c>
-      <c r="I13" s="14">
+      <c r="L13" s="14">
         <v>11.545500000000001</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="14">
+      <c r="M13" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0.159</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.128</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="14">
         <v>14.611000000000001</v>
       </c>
-      <c r="M13" s="14">
+      <c r="S13" s="14">
         <v>15.1486</v>
       </c>
-      <c r="N13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="14">
+      <c r="T13" s="14">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="U13" s="14">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="14">
         <v>15.7567</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Z13" s="14">
         <v>14.2964</v>
       </c>
-      <c r="R13" s="14">
+      <c r="AA13" s="14">
         <v>14.9931</v>
       </c>
-      <c r="S13" s="14">
+      <c r="AB13" s="14">
         <v>13.837400000000001</v>
       </c>
-      <c r="T13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC13" s="14">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1325,62 +1694,80 @@
       <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="6">
         <v>0.26850000000000002</v>
       </c>
-      <c r="G14" s="6">
+      <c r="J14" s="6">
         <v>0.25269999999999998</v>
       </c>
-      <c r="H14" s="7">
+      <c r="K14" s="7">
         <v>0.26429999999999998</v>
       </c>
-      <c r="I14" s="7">
+      <c r="L14" s="7">
         <v>0.25650000000000001</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y14" s="6">
         <v>0.2974</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Z14" s="6">
         <v>0.27250000000000002</v>
       </c>
-      <c r="R14" s="7">
+      <c r="AA14" s="7">
         <v>0.29680000000000001</v>
       </c>
-      <c r="S14" s="7">
+      <c r="AB14" s="7">
         <v>0.27600000000000002</v>
       </c>
-      <c r="T14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC14" s="7">
+        <v>0.114</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -1390,62 +1777,80 @@
       <c r="C15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="10">
         <v>0.11020000000000001</v>
       </c>
-      <c r="G15" s="6">
+      <c r="J15" s="6">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="H15" s="7">
+      <c r="K15" s="7">
         <v>0.1076</v>
       </c>
-      <c r="I15" s="7">
+      <c r="L15" s="7">
         <v>0.1013</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="6">
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y15" s="6">
         <v>0.1103</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Z15" s="6">
         <v>0.1087</v>
       </c>
-      <c r="R15" s="7">
+      <c r="AA15" s="7">
         <v>0.1164</v>
       </c>
-      <c r="S15" s="7">
+      <c r="AB15" s="7">
         <v>0.1111</v>
       </c>
-      <c r="T15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC15" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG15" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
@@ -1455,62 +1860,104 @@
       <c r="C16" s="14">
         <v>15.8794</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="20">
+      <c r="D16" s="51">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E16" s="51">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F16" s="51">
+        <v>0.154</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="20">
         <v>15.3744</v>
       </c>
-      <c r="G16" s="15">
+      <c r="J16" s="15">
         <v>15.2136</v>
       </c>
-      <c r="H16" s="15">
+      <c r="K16" s="15">
         <v>15.010300000000001</v>
       </c>
-      <c r="I16" s="15">
+      <c r="L16" s="15">
         <v>14.070600000000001</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="14">
+      <c r="M16" s="15">
+        <v>0.111</v>
+      </c>
+      <c r="N16" s="15">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="14">
         <v>18.652899999999999</v>
       </c>
-      <c r="M16" s="14">
+      <c r="S16" s="14">
         <v>19.4072</v>
       </c>
-      <c r="N16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="15">
+      <c r="T16" s="14">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="V16" s="14">
+        <v>0.154</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="15">
         <v>19.525500000000001</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Z16" s="20">
         <v>19.202500000000001</v>
       </c>
-      <c r="R16" s="14">
+      <c r="AA16" s="14">
         <v>17.069099999999999</v>
       </c>
-      <c r="S16" s="15">
+      <c r="AB16" s="15">
         <v>18.8599</v>
       </c>
-      <c r="T16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC16" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="AD16" s="15">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AE16" s="15">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AF16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH16">
+        <v>0.111</v>
+      </c>
+      <c r="AI16">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>24</v>
       </c>
@@ -1520,62 +1967,104 @@
       <c r="C17" s="21">
         <v>15.9551</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="19">
+      <c r="D17" s="52">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F17" s="52">
+        <v>0.154</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="19">
         <v>13.662800000000001</v>
       </c>
-      <c r="G17" s="18">
+      <c r="J17" s="18">
         <v>13.752000000000001</v>
       </c>
-      <c r="H17" s="18">
+      <c r="K17" s="18">
         <v>13.3429</v>
       </c>
-      <c r="I17" s="18">
+      <c r="L17" s="18">
         <v>13.536799999999999</v>
       </c>
-      <c r="J17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="16">
+      <c r="M17" s="18">
+        <v>0.111</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0.16</v>
+      </c>
+      <c r="O17" s="18">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="16">
         <v>18.9712</v>
       </c>
-      <c r="M17" s="21">
+      <c r="S17" s="21">
         <v>19.6126</v>
       </c>
-      <c r="N17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="18">
+      <c r="T17" s="21">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="U17" s="21">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="V17" s="21">
+        <v>0.154</v>
+      </c>
+      <c r="W17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="18">
         <v>18.937200000000001</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Z17" s="18">
         <v>19.0989</v>
       </c>
-      <c r="R17" s="16">
+      <c r="AA17" s="16">
         <v>17.856100000000001</v>
       </c>
-      <c r="S17" s="18">
+      <c r="AB17" s="18">
         <v>17.753299999999999</v>
       </c>
-      <c r="T17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC17" s="18">
+        <v>0.11</v>
+      </c>
+      <c r="AD17" s="18">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AE17" s="18">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AF17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH17">
+        <v>0.111</v>
+      </c>
+      <c r="AI17">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
@@ -1585,62 +2074,80 @@
       <c r="C18" s="7">
         <v>13.0855</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="7">
+      <c r="I18" s="7">
         <v>11.4129</v>
       </c>
-      <c r="G18" s="7">
+      <c r="J18" s="7">
         <v>13.067500000000001</v>
       </c>
-      <c r="H18" s="7">
+      <c r="K18" s="7">
         <v>12.104699999999999</v>
       </c>
-      <c r="I18" s="7">
+      <c r="L18" s="7">
         <v>10.985099999999999</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="Q18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="7">
+      <c r="R18" s="7">
         <v>16.796800000000001</v>
       </c>
-      <c r="M18" s="7">
+      <c r="S18" s="7">
         <v>16.9024</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="X18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="7">
+      <c r="Y18" s="7">
         <v>15.630100000000001</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Z18" s="7">
         <v>14.213900000000001</v>
       </c>
-      <c r="R18" s="7">
+      <c r="AA18" s="7">
         <v>15.605600000000001</v>
       </c>
-      <c r="S18" s="7">
+      <c r="AB18" s="7">
         <v>14.2798</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="AC18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U18" s="6" t="s">
+      <c r="AG18" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
@@ -1650,60 +2157,72 @@
       <c r="C19" s="7">
         <v>15.1958</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>16</v>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="J19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="7">
         <v>18.772400000000001</v>
       </c>
-      <c r="M19" s="7">
+      <c r="S19" s="7">
         <v>19.378299999999999</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>16</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -1713,94 +2232,130 @@
       <c r="C20" s="7">
         <v>32.3917</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="7">
+      <c r="I20" s="7">
         <v>34.744</v>
       </c>
-      <c r="G20" s="7">
+      <c r="J20" s="7">
         <v>37.397399999999998</v>
       </c>
-      <c r="H20" s="6">
+      <c r="K20" s="6">
         <v>28.7925</v>
       </c>
-      <c r="I20" s="6">
+      <c r="L20" s="6">
         <v>28.678000000000001</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7">
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="7">
         <v>36.867600000000003</v>
       </c>
-      <c r="M20" s="7">
+      <c r="S20" s="7">
         <v>38.462299999999999</v>
       </c>
-      <c r="N20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="6" t="s">
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P20" s="7">
+      <c r="Y20" s="7">
         <v>47.109900000000003</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Z20" s="7">
         <v>35.758699999999997</v>
       </c>
-      <c r="R20" s="22">
+      <c r="AA20" s="22">
         <v>53.032899999999998</v>
       </c>
-      <c r="S20" s="6">
+      <c r="AB20" s="6">
         <v>40.878900000000002</v>
       </c>
-      <c r="T20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U20" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="M21" s="1"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC20" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="S21" s="1"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="23" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="41" t="s">
+    <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
@@ -1810,11 +2365,11 @@
       <c r="C28">
         <v>0.186</v>
       </c>
-      <c r="D28">
+      <c r="G28">
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>14</v>
       </c>
@@ -1824,46 +2379,46 @@
       <c r="C29">
         <v>0.27400000000000002</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <v>0.223</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>23</v>
       </c>
@@ -1873,14 +2428,14 @@
       <c r="C37">
         <v>0.16500000000000001</v>
       </c>
-      <c r="D37">
+      <c r="G37">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="H37" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>24</v>
       </c>
@@ -1890,24 +2445,24 @@
       <c r="C38">
         <v>0.16500000000000001</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="H38" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>26</v>
       </c>
@@ -1917,38 +2472,42 @@
       <c r="C41">
         <v>1E-3</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <v>1E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="K5:K6"/>
+  <mergeCells count="30">
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="B2:AG2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="R3:AG3"/>
+    <mergeCell ref="Y4:AG4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:U3"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="AA5:AB5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
+++ b/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACCELR_internship\github\tflite-perf-tests\object_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED8781-A317-4437-A3D9-59C84F082C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77990557-8212-4AE4-96A5-CF81478BBDC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9276" yWindow="-132" windowWidth="13332" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="53">
   <si>
     <t>TFLITE-COMPARISON</t>
   </si>
@@ -159,12 +159,45 @@
   <si>
     <t>* check model ZOO</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>3. ssd_mobilenet_v2_fpnlite_640 (I- DYNAMIC)</t>
+  </si>
+  <si>
+    <t>4. ssd_mobilenet_v2_fpnlite_320 (I- DYNAMIC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. ssd_mobilenet_v2 (II- STATIC) </t>
+  </si>
+  <si>
+    <t>6. ssd_mobilenet_v1_fpn (I- DYNAMIC)</t>
+  </si>
+  <si>
+    <t>6. ssd_mobilenet_v1_fpn (III- CONVERT-ONLY)</t>
+  </si>
+  <si>
+    <t>4. ssd_mobilenet_v2_fpnlite_320 (III- CONVERT-ONLY)</t>
+  </si>
+  <si>
+    <t>3. ssd_mobilenet_v2_fpnlite_640 (III- CONVERT-ONLY)</t>
+  </si>
+  <si>
+    <t>32 bit Python NUM_THREADS=1 performance</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVERAGE PRECISION- BASELINES </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -237,18 +270,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="7" tint="0.59999389629810485"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="7" tint="-0.249977111117893"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,8 +372,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -415,11 +454,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,8 +504,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -448,20 +511,8 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -471,13 +522,72 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -487,7 +597,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -495,9 +604,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,34 +612,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,1425 +849,1489 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AL41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="74" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" customWidth="1"/>
-    <col min="10" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="17" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" customWidth="1"/>
-    <col min="19" max="22" width="13.88671875" customWidth="1"/>
-    <col min="23" max="23" width="12.77734375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="25" max="28" width="14.44140625" customWidth="1"/>
-    <col min="32" max="33" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="14" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="20" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="13.88671875" customWidth="1"/>
+    <col min="23" max="24" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12.77734375" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.44140625" customWidth="1"/>
+    <col min="29" max="30" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="32" max="35" width="14.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:38" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-    </row>
-    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+    </row>
+    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-    </row>
-    <row r="3" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="49" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="54"/>
+    </row>
+    <row r="3" spans="1:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-    </row>
-    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="40" t="s">
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+    </row>
+    <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="40" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="42" t="s">
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-    </row>
-    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35" t="s">
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+    </row>
+    <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="E5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="F5" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="J5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="K5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="39" t="s">
+      <c r="L5" s="49"/>
+      <c r="M5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="27" t="s">
+      <c r="N5" s="49"/>
+      <c r="O5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="S5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="T5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="U5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="44" t="s">
+      <c r="V5" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="45"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="32" t="s">
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="X5" s="32" t="s">
+      <c r="Z5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="39" t="s">
+      <c r="AA5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="39" t="s">
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="27" t="s">
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="32" t="s">
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AI5" s="57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="26" t="s">
+    <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="G6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="H6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="L6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="M6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="N6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="O6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="P6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="Q6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="26" t="s">
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="26" t="s">
+      <c r="W6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="26" t="s">
+      <c r="X6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="12" t="s">
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="AB6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AC6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AD6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="26" t="s">
+      <c r="AE6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AD6" s="26" t="s">
+      <c r="AF6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AE6" s="26" t="s">
+      <c r="AG6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-    </row>
-    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+    </row>
+    <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="72">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="C7" s="73">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D7" s="7">
         <v>8.5198999999999998</v>
       </c>
-      <c r="C7" s="7">
+      <c r="E7" s="7">
         <v>8.9611999999999998</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="33">
+        <v>0</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="7">
+      <c r="K7" s="7">
         <v>8.7563999999999993</v>
       </c>
-      <c r="J7" s="7">
+      <c r="L7" s="7">
         <v>8.9234000000000009</v>
       </c>
-      <c r="K7" s="7">
+      <c r="M7" s="7">
         <v>9.1134000000000004</v>
       </c>
-      <c r="L7" s="7">
+      <c r="N7" s="7">
         <v>8.9818999999999996</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="7">
+      <c r="O7" s="7">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0.188</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="7">
         <v>16.304400000000001</v>
       </c>
-      <c r="S7" s="7">
+      <c r="U7" s="7">
         <v>16.486599999999999</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" s="6" t="s">
+      <c r="V7" s="43">
+        <v>0</v>
+      </c>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="AA7" s="7">
         <v>19.936</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="AB7" s="7">
         <v>19.9146</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AC7" s="7">
         <v>18.751799999999999</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AD7" s="7">
         <v>18.9176</v>
       </c>
-      <c r="AC7" s="7">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>0.186</v>
-      </c>
       <c r="AE7" s="7">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="AF7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>0.188</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="72">
+        <v>0.24</v>
+      </c>
+      <c r="C8" s="73">
+        <v>0.24</v>
+      </c>
+      <c r="D8" s="7">
         <v>3.6566000000000001</v>
       </c>
-      <c r="C8" s="7">
+      <c r="E8" s="7">
         <v>4.0309999999999997</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="F8" s="33">
+        <v>0</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="7">
+      <c r="K8" s="7">
         <v>3.8466999999999998</v>
       </c>
-      <c r="J8" s="7">
+      <c r="L8" s="7">
         <v>4.0617999999999999</v>
       </c>
-      <c r="K8" s="7">
+      <c r="M8" s="7">
         <v>3.8940999999999999</v>
       </c>
-      <c r="L8" s="7">
+      <c r="N8" s="7">
         <v>3.9441000000000002</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="7">
+      <c r="O8" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="7">
         <v>6.891</v>
       </c>
-      <c r="S8" s="7">
+      <c r="U8" s="7">
         <v>7.4348000000000001</v>
       </c>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X8" s="6" t="s">
+      <c r="V8" s="33">
+        <v>0</v>
+      </c>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="AA8" s="7">
         <v>8.7937999999999992</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="AB8" s="7">
         <v>8.7248999999999999</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AC8" s="7">
         <v>8.3080999999999996</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AD8" s="7">
         <v>7.8689999999999998</v>
       </c>
-      <c r="AC8" s="7">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>0.27400000000000002</v>
-      </c>
       <c r="AE8" s="7">
-        <v>0.223</v>
-      </c>
-      <c r="AF8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+        <v>0.24</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="6">
         <v>0.63749999999999996</v>
       </c>
-      <c r="J9" s="6">
+      <c r="L9" s="6">
         <v>0.66039999999999999</v>
       </c>
-      <c r="K9" s="7">
+      <c r="M9" s="7">
         <v>0.64849999999999997</v>
       </c>
-      <c r="L9" s="7">
+      <c r="N9" s="7">
         <v>0.64410000000000001</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
       <c r="R9" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y9" s="6">
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA9" s="6">
         <v>1.1909000000000001</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="AB9" s="6">
         <v>1.1753</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AC9" s="7">
         <v>1.1060000000000001</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AD9" s="7">
         <v>1.1094999999999999</v>
       </c>
-      <c r="AC9" s="7">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="AD9" s="7">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AG9" s="33">
         <v>0.155</v>
       </c>
-      <c r="AF9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="AH9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="8">
         <v>0.70589999999999997</v>
       </c>
-      <c r="J10" s="6">
+      <c r="L10" s="6">
         <v>0.71789999999999998</v>
       </c>
-      <c r="K10" s="7">
+      <c r="M10" s="7">
         <v>0.71660000000000001</v>
       </c>
-      <c r="L10" s="7">
+      <c r="N10" s="7">
         <v>0.73299999999999998</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y10" s="6">
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA10" s="6">
         <v>1.4504999999999999</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="AB10" s="6">
         <v>1.3288</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AC10" s="7">
         <v>1.3798999999999999</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AD10" s="7">
         <v>1.294</v>
       </c>
-      <c r="AC10" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="AD10" s="7">
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33">
         <v>0.17599999999999999</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AG10" s="33">
         <v>0.151</v>
       </c>
-      <c r="AF10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG10" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="AH10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="6">
         <v>1.9638</v>
       </c>
-      <c r="J11" s="6">
+      <c r="L11" s="6">
         <v>1.9446000000000001</v>
       </c>
-      <c r="K11" s="7">
+      <c r="M11" s="7">
         <v>1.8580000000000001</v>
       </c>
-      <c r="L11" s="7">
+      <c r="N11" s="7">
         <v>1.8012999999999999</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
       <c r="R11" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="V11" s="6"/>
-      <c r="W11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y11" s="6">
+      <c r="W11" s="7"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA11" s="6">
         <v>4.8159999999999998</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="AB11" s="6">
         <v>4.3872</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AC11" s="7">
         <v>4.4539999999999997</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AD11" s="7">
         <v>4.1999000000000004</v>
       </c>
-      <c r="AC11" s="7">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="AD11" s="7">
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="33">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AE11" s="7">
+      <c r="AG11" s="33">
         <v>0.11600000000000001</v>
       </c>
-      <c r="AF11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="AH11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="6">
         <v>2.2877000000000001</v>
       </c>
-      <c r="J12" s="6">
+      <c r="L12" s="6">
         <v>2.238</v>
       </c>
-      <c r="K12" s="7">
+      <c r="M12" s="7">
         <v>2.3487</v>
       </c>
-      <c r="L12" s="7">
+      <c r="N12" s="7">
         <v>2.3607</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="V12" s="9"/>
-      <c r="W12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="X12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y12" s="9">
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA12" s="9">
         <v>5.6670999999999996</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="AB12" s="6">
         <v>5.1318999999999999</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AC12" s="7">
         <v>5.3026999999999997</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AD12" s="7">
         <v>4.9962999999999997</v>
       </c>
-      <c r="AC12" s="7">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="AD12" s="7">
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AG12" s="33">
         <v>0.108</v>
       </c>
-      <c r="AF12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
+      <c r="AH12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ12" s="3"/>
-    </row>
-    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="14">
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+    </row>
+    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="73">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D13" s="12">
         <v>11.8931</v>
       </c>
-      <c r="C13" s="14">
+      <c r="E13" s="12">
         <v>12.122400000000001</v>
       </c>
-      <c r="D13" s="51">
+      <c r="F13" s="24">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E13" s="51">
+      <c r="G13" s="24">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F13" s="51">
+      <c r="H13" s="24">
         <v>0.13900000000000001</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="I13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="12">
         <v>12.7692</v>
       </c>
-      <c r="J13" s="14">
+      <c r="L13" s="12">
         <v>12.327500000000001</v>
       </c>
-      <c r="K13" s="14">
+      <c r="M13" s="12">
         <v>12.488799999999999</v>
       </c>
-      <c r="L13" s="14">
+      <c r="N13" s="12">
         <v>11.545500000000001</v>
       </c>
-      <c r="M13" s="14">
-        <v>0.12</v>
-      </c>
-      <c r="N13" s="14">
-        <v>0.159</v>
-      </c>
-      <c r="O13" s="14">
-        <v>0.128</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="14">
+      <c r="O13" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="12">
         <v>14.611000000000001</v>
       </c>
-      <c r="S13" s="14">
+      <c r="U13" s="12">
         <v>15.1486</v>
       </c>
-      <c r="T13" s="14">
+      <c r="V13" s="12">
         <v>0.14199999999999999</v>
       </c>
-      <c r="U13" s="14">
+      <c r="W13" s="12">
         <v>0.20599999999999999</v>
       </c>
-      <c r="V13" s="14">
+      <c r="X13" s="12">
         <v>0.14299999999999999</v>
       </c>
-      <c r="W13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y13" s="14">
+      <c r="Y13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="12">
         <v>15.7567</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="AB13" s="12">
         <v>14.2964</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AC13" s="12">
         <v>14.9931</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AD13" s="12">
         <v>13.837400000000001</v>
       </c>
-      <c r="AC13" s="14">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="AD13" s="14">
-        <v>0.151</v>
-      </c>
-      <c r="AE13" s="14">
-        <v>0.12</v>
-      </c>
-      <c r="AF13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG13" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="AE13" s="12">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AH13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="6">
         <v>0.26850000000000002</v>
       </c>
-      <c r="J14" s="6">
+      <c r="L14" s="6">
         <v>0.25269999999999998</v>
       </c>
-      <c r="K14" s="7">
+      <c r="M14" s="7">
         <v>0.26429999999999998</v>
       </c>
-      <c r="L14" s="7">
+      <c r="N14" s="7">
         <v>0.25650000000000001</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y14" s="6">
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA14" s="6">
         <v>0.2974</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="AB14" s="6">
         <v>0.27250000000000002</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AC14" s="7">
         <v>0.29680000000000001</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AD14" s="7">
         <v>0.27600000000000002</v>
       </c>
-      <c r="AC14" s="7">
-        <v>0.114</v>
-      </c>
-      <c r="AD14" s="7">
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AG14" s="33">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AF14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG14" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="AH14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="10">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="10">
         <v>0.11020000000000001</v>
       </c>
-      <c r="J15" s="6">
+      <c r="L15" s="6">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="K15" s="7">
+      <c r="M15" s="7">
         <v>0.1076</v>
       </c>
-      <c r="L15" s="7">
+      <c r="N15" s="7">
         <v>0.1013</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="V15" s="6"/>
-      <c r="W15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y15" s="6">
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA15" s="6">
         <v>0.1103</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="AB15" s="6">
         <v>0.1087</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AC15" s="7">
         <v>0.1164</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AD15" s="7">
         <v>0.1111</v>
       </c>
-      <c r="AC15" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AD15" s="7">
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33">
         <v>0.14899999999999999</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AG15" s="33">
         <v>0.13900000000000001</v>
       </c>
-      <c r="AF15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="AH15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI15" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="45"/>
+      <c r="C16" s="73">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D16" s="13">
         <v>15.230700000000001</v>
       </c>
-      <c r="C16" s="14">
+      <c r="E16" s="12">
         <v>15.8794</v>
       </c>
-      <c r="D16" s="51">
+      <c r="F16" s="24">
         <v>0.14799999999999999</v>
       </c>
-      <c r="E16" s="51">
+      <c r="G16" s="24">
         <v>0.23300000000000001</v>
       </c>
-      <c r="F16" s="51">
+      <c r="H16" s="24">
         <v>0.154</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="20">
+      <c r="I16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="15">
         <v>15.3744</v>
       </c>
-      <c r="J16" s="15">
+      <c r="L16" s="13">
         <v>15.2136</v>
       </c>
-      <c r="K16" s="15">
+      <c r="M16" s="13">
         <v>15.010300000000001</v>
       </c>
-      <c r="L16" s="15">
+      <c r="N16" s="13">
         <v>14.070600000000001</v>
       </c>
-      <c r="M16" s="15">
+      <c r="O16" s="13">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>0.154</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="12">
+        <v>18.652899999999999</v>
+      </c>
+      <c r="U16" s="12">
+        <v>19.4072</v>
+      </c>
+      <c r="V16" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="W16" s="12">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="X16" s="12">
+        <v>0.154</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>19.525500000000001</v>
+      </c>
+      <c r="AB16" s="15">
+        <v>19.202500000000001</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>17.069099999999999</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>18.8599</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>0.154</v>
+      </c>
+      <c r="AH16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI16" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17">
         <v>0.111</v>
       </c>
-      <c r="N16" s="15">
+      <c r="D17" s="37">
+        <v>14.939500000000001</v>
+      </c>
+      <c r="E17" s="38">
+        <v>15.9551</v>
+      </c>
+      <c r="F17" s="39">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H17" s="39">
+        <v>0.154</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="40">
+        <v>13.662800000000001</v>
+      </c>
+      <c r="L17" s="37">
+        <v>13.752000000000001</v>
+      </c>
+      <c r="M17" s="37">
+        <v>13.3429</v>
+      </c>
+      <c r="N17" s="37">
+        <v>13.536799999999999</v>
+      </c>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="41">
+        <v>18.9712</v>
+      </c>
+      <c r="U17" s="38">
+        <v>19.6126</v>
+      </c>
+      <c r="V17" s="38">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="W17" s="38">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="X17" s="38">
+        <v>0.154</v>
+      </c>
+      <c r="Y17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="37">
+        <v>18.937200000000001</v>
+      </c>
+      <c r="AB17" s="37">
+        <v>19.0989</v>
+      </c>
+      <c r="AC17" s="41">
+        <v>17.856100000000001</v>
+      </c>
+      <c r="AD17" s="37">
+        <v>17.753299999999999</v>
+      </c>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42">
         <v>0.16500000000000001</v>
       </c>
-      <c r="O16" s="15">
+      <c r="AG17" s="42">
         <v>0.11799999999999999</v>
       </c>
-      <c r="P16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="14">
-        <v>18.652899999999999</v>
-      </c>
-      <c r="S16" s="14">
-        <v>19.4072</v>
-      </c>
-      <c r="T16" s="14">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="U16" s="14">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="V16" s="14">
-        <v>0.154</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y16" s="15">
-        <v>19.525500000000001</v>
-      </c>
-      <c r="Z16" s="20">
-        <v>19.202500000000001</v>
-      </c>
-      <c r="AA16" s="14">
-        <v>17.069099999999999</v>
-      </c>
-      <c r="AB16" s="15">
-        <v>18.8599</v>
-      </c>
-      <c r="AC16" s="15">
-        <v>0.11</v>
-      </c>
-      <c r="AD16" s="15">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="AE16" s="15">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="AF16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH16">
-        <v>0.111</v>
-      </c>
-      <c r="AI16">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="18">
-        <v>14.939500000000001</v>
-      </c>
-      <c r="C17" s="21">
-        <v>15.9551</v>
-      </c>
-      <c r="D17" s="52">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="E17" s="52">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="F17" s="52">
-        <v>0.154</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="19">
-        <v>13.662800000000001</v>
-      </c>
-      <c r="J17" s="18">
-        <v>13.752000000000001</v>
-      </c>
-      <c r="K17" s="18">
-        <v>13.3429</v>
-      </c>
-      <c r="L17" s="18">
-        <v>13.536799999999999</v>
-      </c>
-      <c r="M17" s="18">
-        <v>0.111</v>
-      </c>
-      <c r="N17" s="18">
-        <v>0.16</v>
-      </c>
-      <c r="O17" s="18">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="P17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="16">
-        <v>18.9712</v>
-      </c>
-      <c r="S17" s="21">
-        <v>19.6126</v>
-      </c>
-      <c r="T17" s="21">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="U17" s="21">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="V17" s="21">
-        <v>0.154</v>
-      </c>
-      <c r="W17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y17" s="18">
-        <v>18.937200000000001</v>
-      </c>
-      <c r="Z17" s="18">
-        <v>19.0989</v>
-      </c>
-      <c r="AA17" s="16">
-        <v>17.856100000000001</v>
-      </c>
-      <c r="AB17" s="18">
-        <v>17.753299999999999</v>
-      </c>
-      <c r="AC17" s="18">
-        <v>0.11</v>
-      </c>
-      <c r="AD17" s="18">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="AE17" s="18">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="AF17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH17">
-        <v>0.111</v>
-      </c>
-      <c r="AI17">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI17" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="7">
         <v>12.8</v>
       </c>
-      <c r="C18" s="7">
+      <c r="E18" s="7">
         <v>13.0855</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="7">
+      <c r="K18" s="7">
         <v>11.4129</v>
       </c>
-      <c r="J18" s="7">
+      <c r="L18" s="7">
         <v>13.067500000000001</v>
       </c>
-      <c r="K18" s="7">
+      <c r="M18" s="7">
         <v>12.104699999999999</v>
       </c>
-      <c r="L18" s="7">
+      <c r="N18" s="7">
         <v>10.985099999999999</v>
       </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="S18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R18" s="7">
+      <c r="T18" s="7">
         <v>16.796800000000001</v>
       </c>
-      <c r="S18" s="7">
+      <c r="U18" s="7">
         <v>16.9024</v>
       </c>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="6" t="s">
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="X18" s="6" t="s">
+      <c r="Z18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="AA18" s="7">
         <v>15.630100000000001</v>
       </c>
-      <c r="Z18" s="7">
+      <c r="AB18" s="7">
         <v>14.213900000000001</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AC18" s="7">
         <v>15.605600000000001</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AD18" s="7">
         <v>14.2798</v>
       </c>
-      <c r="AC18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF18" s="6" t="s">
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG18" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AG18" s="6" t="s">
+      <c r="AI18" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="7">
         <v>14.7342</v>
       </c>
-      <c r="C19" s="7">
+      <c r="E19" s="7">
         <v>15.1958</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>16</v>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>16</v>
@@ -2178,180 +2339,194 @@
       <c r="L19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="M19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="O19" s="7"/>
-      <c r="P19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R19" s="7">
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T19" s="7">
         <v>18.772400000000001</v>
       </c>
-      <c r="S19" s="7">
+      <c r="U19" s="7">
         <v>19.378299999999999</v>
       </c>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
       <c r="V19" s="7"/>
-      <c r="W19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>16</v>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
+      <c r="AB19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG19" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="7">
         <v>31.8306</v>
       </c>
-      <c r="C20" s="7">
+      <c r="E20" s="7">
         <v>32.3917</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="7">
+      <c r="K20" s="7">
         <v>34.744</v>
       </c>
-      <c r="J20" s="7">
+      <c r="L20" s="7">
         <v>37.397399999999998</v>
       </c>
-      <c r="K20" s="6">
+      <c r="M20" s="6">
         <v>28.7925</v>
       </c>
-      <c r="L20" s="6">
+      <c r="N20" s="6">
         <v>28.678000000000001</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="7">
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="7">
         <v>36.867600000000003</v>
       </c>
-      <c r="S20" s="7">
+      <c r="U20" s="7">
         <v>38.462299999999999</v>
       </c>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
       <c r="V20" s="7"/>
-      <c r="W20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X20" s="6" t="s">
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="AA20" s="7">
         <v>47.109900000000003</v>
       </c>
-      <c r="Z20" s="7">
+      <c r="AB20" s="7">
         <v>35.758699999999997</v>
       </c>
-      <c r="AA20" s="22">
+      <c r="AC20" s="16">
         <v>53.032899999999998</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AD20" s="6">
         <v>40.878900000000002</v>
       </c>
-      <c r="AC20" s="6">
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="35">
         <v>1E-3</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AG20" s="35">
         <v>1E-3</v>
       </c>
-      <c r="AE20" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="AF20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG20" s="6" t="s">
+      <c r="AH20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI20" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="S21" s="1"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="U21" s="1"/>
       <c r="V21" s="5"/>
-      <c r="X21" s="2"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Z21" s="2"/>
     </row>
     <row r="23" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
+      <c r="D26" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="25" t="s">
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="K26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="53" t="s">
+      <c r="L26" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+      <c r="D27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="E27" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2359,13 +2534,15 @@
       <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28">
         <v>0.13900000000000001</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>0.186</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>0.14599999999999999</v>
       </c>
     </row>
@@ -2373,13 +2550,15 @@
       <c r="A29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29">
         <v>0.20100000000000001</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>0.27400000000000002</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>0.223</v>
       </c>
     </row>
@@ -2387,127 +2566,155 @@
       <c r="A30" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37">
         <v>0.111</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="J37" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38">
         <v>0.111</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="J38" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41">
         <v>1E-3</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>1E-3</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>1E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="A1:AG1"/>
+  <mergeCells count="34">
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="T4:Z4"/>
+    <mergeCell ref="D3:S3"/>
+    <mergeCell ref="T3:AI3"/>
+    <mergeCell ref="AA4:AI4"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="R5:R6"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="D26:I26"/>
     <mergeCell ref="S5:S6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="B2:AG2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="R3:AG3"/>
-    <mergeCell ref="Y4:AG4"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="K4:S4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C2:AI2"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AI5:AI6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
+++ b/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACCELR_internship\github\tflite-perf-tests\object_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77990557-8212-4AE4-96A5-CF81478BBDC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DE5D89-36C2-489A-90ED-CD22A1FDC57E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9276" yWindow="-132" windowWidth="13332" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="55">
   <si>
     <t>TFLITE-COMPARISON</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t xml:space="preserve">AVERAGE PRECISION- BASELINES </t>
+  </si>
+  <si>
+    <t>UPDATE REPOSITORY</t>
+  </si>
+  <si>
+    <t>from official repositoy (saved model COCO-mAP) : 20.2</t>
   </si>
 </sst>
 </file>
@@ -275,7 +281,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,12 +384,6 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -484,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -536,8 +536,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -563,8 +561,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -631,6 +627,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,8 +850,8 @@
   </sheetPr>
   <dimension ref="A1:AL41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -883,262 +882,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="50"/>
     </row>
     <row r="3" spans="1:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="50" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="71" t="s">
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="63" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="65" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="63" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="65" t="s">
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
     </row>
     <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="57" t="s">
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="48" t="s">
+      <c r="L5" s="45"/>
+      <c r="M5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="47" t="s">
+      <c r="N5" s="45"/>
+      <c r="O5" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="57" t="s">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="57" t="s">
+      <c r="S5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="59" t="s">
+      <c r="T5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="61" t="s">
+      <c r="U5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="67" t="s">
+      <c r="V5" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="57" t="s">
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="57" t="s">
+      <c r="Z5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AA5" s="48" t="s">
+      <c r="AA5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="48" t="s">
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="47" t="s">
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="57" t="s">
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="57" t="s">
+      <c r="AI5" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="62"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="20" t="s">
         <v>34</v>
       </c>
@@ -1148,8 +1147,8 @@
       <c r="H6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="22" t="s">
         <v>5</v>
       </c>
@@ -1171,10 +1170,10 @@
       <c r="Q6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="62"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="58"/>
       <c r="V6" s="20" t="s">
         <v>34</v>
       </c>
@@ -1184,8 +1183,8 @@
       <c r="X6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
       <c r="AA6" s="22" t="s">
         <v>5</v>
       </c>
@@ -1207,17 +1206,17 @@
       <c r="AG6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="68">
         <v>0.17799999999999999</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="69">
         <v>0.17799999999999999</v>
       </c>
       <c r="D7" s="7">
@@ -1226,11 +1225,11 @@
       <c r="E7" s="7">
         <v>8.9611999999999998</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="31">
         <v>0</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1270,11 +1269,11 @@
       <c r="U7" s="7">
         <v>16.486599999999999</v>
       </c>
-      <c r="V7" s="43">
+      <c r="V7" s="41">
         <v>0</v>
       </c>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
       <c r="Y7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1313,10 +1312,10 @@
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="68">
         <v>0.24</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="69">
         <v>0.24</v>
       </c>
       <c r="D8" s="7">
@@ -1325,11 +1324,11 @@
       <c r="E8" s="7">
         <v>4.0309999999999997</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="31">
         <v>0</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1369,11 +1368,11 @@
       <c r="U8" s="7">
         <v>7.4348000000000001</v>
       </c>
-      <c r="V8" s="33">
+      <c r="V8" s="31">
         <v>0</v>
       </c>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
       <c r="Y8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1412,10 +1411,10 @@
       <c r="A9" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="73"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1479,11 +1478,11 @@
       <c r="AD9" s="7">
         <v>1.1094999999999999</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33">
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AG9" s="33">
+      <c r="AG9" s="31">
         <v>0.155</v>
       </c>
       <c r="AH9" s="6" t="s">
@@ -1497,10 +1496,10 @@
       <c r="A10" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="73"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1560,11 +1559,11 @@
       <c r="AD10" s="7">
         <v>1.294</v>
       </c>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33">
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31">
         <v>0.17599999999999999</v>
       </c>
-      <c r="AG10" s="33">
+      <c r="AG10" s="31">
         <v>0.151</v>
       </c>
       <c r="AH10" s="6" t="s">
@@ -1578,10 +1577,10 @@
       <c r="A11" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1645,11 +1644,11 @@
       <c r="AD11" s="7">
         <v>4.1999000000000004</v>
       </c>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33">
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AG11" s="33">
+      <c r="AG11" s="31">
         <v>0.11600000000000001</v>
       </c>
       <c r="AH11" s="6" t="s">
@@ -1663,10 +1662,10 @@
       <c r="A12" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
@@ -1730,11 +1729,11 @@
       <c r="AD12" s="7">
         <v>4.9962999999999997</v>
       </c>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33">
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AG12" s="33">
+      <c r="AG12" s="31">
         <v>0.108</v>
       </c>
       <c r="AH12" s="6" t="s">
@@ -1751,8 +1750,10 @@
       <c r="A13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="73">
+      <c r="B13" s="70">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C13" s="69">
         <v>0.14000000000000001</v>
       </c>
       <c r="D13" s="12">
@@ -1856,10 +1857,10 @@
       <c r="A14" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
@@ -1923,11 +1924,11 @@
       <c r="AD14" s="7">
         <v>0.27600000000000002</v>
       </c>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33">
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AG14" s="33">
+      <c r="AG14" s="31">
         <v>0.13200000000000001</v>
       </c>
       <c r="AH14" s="6" t="s">
@@ -1941,10 +1942,10 @@
       <c r="A15" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
@@ -2008,11 +2009,11 @@
       <c r="AD15" s="7">
         <v>0.1111</v>
       </c>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33">
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31">
         <v>0.14899999999999999</v>
       </c>
-      <c r="AG15" s="33">
+      <c r="AG15" s="31">
         <v>0.13900000000000001</v>
       </c>
       <c r="AH15" s="6" t="s">
@@ -2026,8 +2027,10 @@
       <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="73">
+      <c r="B16" s="68">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C16" s="69">
         <v>0.14799999999999999</v>
       </c>
       <c r="D16" s="13">
@@ -2128,101 +2131,101 @@
       </c>
     </row>
     <row r="17" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="71" t="s">
         <v>51</v>
       </c>
       <c r="C17">
         <v>0.111</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="35">
         <v>14.939500000000001</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="36">
         <v>15.9551</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="37">
         <v>0.14799999999999999</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="37">
         <v>0.23300000000000001</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="37">
         <v>0.154</v>
       </c>
-      <c r="I17" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="40">
+      <c r="I17" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="38">
         <v>13.662800000000001</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="35">
         <v>13.752000000000001</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="35">
         <v>13.3429</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="35">
         <v>13.536799999999999</v>
       </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="41">
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="39">
         <v>18.9712</v>
       </c>
-      <c r="U17" s="38">
+      <c r="U17" s="36">
         <v>19.6126</v>
       </c>
-      <c r="V17" s="38">
+      <c r="V17" s="36">
         <v>0.14699999999999999</v>
       </c>
-      <c r="W17" s="38">
+      <c r="W17" s="36">
         <v>0.23300000000000001</v>
       </c>
-      <c r="X17" s="38">
+      <c r="X17" s="36">
         <v>0.154</v>
       </c>
-      <c r="Y17" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA17" s="37">
+      <c r="Y17" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="35">
         <v>18.937200000000001</v>
       </c>
-      <c r="AB17" s="37">
+      <c r="AB17" s="35">
         <v>19.0989</v>
       </c>
-      <c r="AC17" s="41">
+      <c r="AC17" s="39">
         <v>17.856100000000001</v>
       </c>
-      <c r="AD17" s="37">
+      <c r="AD17" s="35">
         <v>17.753299999999999</v>
       </c>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42">
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AG17" s="42">
+      <c r="AG17" s="40">
         <v>0.11799999999999999</v>
       </c>
-      <c r="AH17" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI17" s="36" t="s">
+      <c r="AH17" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI17" s="34" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2230,7 +2233,7 @@
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="71" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="18"/>
@@ -2297,11 +2300,11 @@
       <c r="AD18" s="7">
         <v>14.2798</v>
       </c>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG18" s="33" t="s">
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG18" s="31" t="s">
         <v>16</v>
       </c>
       <c r="AH18" s="6" t="s">
@@ -2315,7 +2318,7 @@
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="71" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="7">
@@ -2379,9 +2382,9 @@
         <v>16</v>
       </c>
       <c r="AD19" s="7"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
       <c r="AH19" s="6" t="s">
         <v>16</v>
       </c>
@@ -2393,7 +2396,7 @@
       <c r="A20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="71" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -2462,11 +2465,11 @@
       <c r="AD20" s="6">
         <v>40.878900000000002</v>
       </c>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="35">
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="33">
         <v>1E-3</v>
       </c>
-      <c r="AG20" s="35">
+      <c r="AG20" s="33">
         <v>1E-3</v>
       </c>
       <c r="AH20" s="6" t="s">
@@ -2477,6 +2480,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B21" s="72"/>
       <c r="U21" s="1"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
@@ -2498,14 +2502,14 @@
       <c r="C24" s="5"/>
     </row>
     <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
       <c r="J26" s="19" t="s">
         <v>38</v>
       </c>
@@ -2529,6 +2533,9 @@
       <c r="I27" s="18" t="s">
         <v>36</v>
       </c>
+      <c r="L27" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -2594,7 +2601,9 @@
       <c r="A34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="C34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
+++ b/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACCELR_internship\github\tflite-perf-tests\object_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DE5D89-36C2-489A-90ED-CD22A1FDC57E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAC715B-2D41-4980-B5C5-37E8BDC40AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9276" yWindow="-132" windowWidth="13332" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="57">
   <si>
     <t>TFLITE-COMPARISON</t>
   </si>
@@ -184,19 +184,25 @@
     <t>3. ssd_mobilenet_v2_fpnlite_640 (III- CONVERT-ONLY)</t>
   </si>
   <si>
-    <t>32 bit Python NUM_THREADS=1 performance</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">AVERAGE PRECISION- BASELINES </t>
-  </si>
-  <si>
     <t>UPDATE REPOSITORY</t>
   </si>
   <si>
     <t>from official repositoy (saved model COCO-mAP) : 20.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOU=0.50:0.95 </t>
+  </si>
+  <si>
+    <t>32 bit Python NUM_THREADS=1 mAP</t>
+  </si>
+  <si>
+    <t>32 bit Python NUM_THREADS=1 FPS</t>
+  </si>
+  <si>
+    <t>0 (NA)</t>
   </si>
 </sst>
 </file>
@@ -385,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -480,11 +486,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -561,38 +598,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -600,6 +620,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,25 +634,59 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,8 +907,8 @@
   </sheetPr>
   <dimension ref="A1:AL41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -921,223 +978,221 @@
       <c r="AI1" s="65"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="50"/>
-    </row>
-    <row r="3" spans="1:38" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="46" t="s">
-        <v>52</v>
-      </c>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
+    </row>
+    <row r="3" spans="1:38" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="67" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="71"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="59" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="59" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="61" t="s">
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
     </row>
     <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="55" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="53" t="s">
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="44" t="s">
+      <c r="L5" s="48"/>
+      <c r="M5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="43" t="s">
+      <c r="N5" s="48"/>
+      <c r="O5" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="53" t="s">
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="53" t="s">
+      <c r="S5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="55" t="s">
+      <c r="T5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="57" t="s">
+      <c r="U5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="63" t="s">
+      <c r="V5" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="63"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="53" t="s">
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="53" t="s">
+      <c r="Z5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AA5" s="44" t="s">
+      <c r="AA5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="44" t="s">
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="43" t="s">
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="53" t="s">
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="53" t="s">
+      <c r="AI5" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="58"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="20" t="s">
         <v>34</v>
       </c>
@@ -1147,8 +1202,8 @@
       <c r="H6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
       <c r="K6" s="22" t="s">
         <v>5</v>
       </c>
@@ -1170,10 +1225,10 @@
       <c r="Q6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="58"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="55"/>
       <c r="V6" s="20" t="s">
         <v>34</v>
       </c>
@@ -1183,8 +1238,8 @@
       <c r="X6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
       <c r="AA6" s="22" t="s">
         <v>5</v>
       </c>
@@ -1206,27 +1261,25 @@
       <c r="AG6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="42">
         <v>0.17799999999999999</v>
       </c>
-      <c r="C7" s="69">
-        <v>0.17799999999999999</v>
-      </c>
+      <c r="C7" s="43"/>
       <c r="D7" s="7">
         <v>8.5198999999999998</v>
       </c>
       <c r="E7" s="7">
         <v>8.9611999999999998</v>
       </c>
-      <c r="F7" s="31">
-        <v>0</v>
+      <c r="F7" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
@@ -1312,12 +1365,10 @@
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="42">
         <v>0.24</v>
       </c>
-      <c r="C8" s="69">
-        <v>0.24</v>
-      </c>
+      <c r="C8" s="43"/>
       <c r="D8" s="7">
         <v>3.6566000000000001</v>
       </c>
@@ -1412,9 +1463,9 @@
         <v>43</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="69"/>
+        <v>50</v>
+      </c>
+      <c r="C9" s="43"/>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1497,9 +1548,9 @@
         <v>49</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="69"/>
+        <v>50</v>
+      </c>
+      <c r="C10" s="43"/>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1578,9 +1629,9 @@
         <v>44</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="69"/>
+        <v>50</v>
+      </c>
+      <c r="C11" s="43"/>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1663,9 +1714,9 @@
         <v>48</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="69"/>
+        <v>50</v>
+      </c>
+      <c r="C12" s="43"/>
       <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
@@ -1750,12 +1801,10 @@
       <c r="A13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="70">
+      <c r="B13" s="44">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C13" s="69">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="C13" s="43"/>
       <c r="D13" s="12">
         <v>11.8931</v>
       </c>
@@ -1857,10 +1906,10 @@
       <c r="A14" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="69"/>
+      <c r="B14" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="43"/>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
@@ -1942,10 +1991,10 @@
       <c r="A15" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="69"/>
+      <c r="B15" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="43"/>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
@@ -2027,12 +2076,10 @@
       <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="42">
         <v>0.14799999999999999</v>
       </c>
-      <c r="C16" s="69">
-        <v>0.14799999999999999</v>
-      </c>
+      <c r="C16" s="43"/>
       <c r="D16" s="13">
         <v>15.230700000000001</v>
       </c>
@@ -2134,8 +2181,8 @@
       <c r="A17" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="71" t="s">
-        <v>51</v>
+      <c r="B17" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="C17">
         <v>0.111</v>
@@ -2233,8 +2280,8 @@
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="71" t="s">
-        <v>51</v>
+      <c r="B18" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="7">
@@ -2318,8 +2365,8 @@
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="71" t="s">
-        <v>51</v>
+      <c r="B19" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="D19" s="7">
         <v>14.7342</v>
@@ -2396,8 +2443,8 @@
       <c r="A20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="71" t="s">
-        <v>51</v>
+      <c r="B20" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>42</v>
@@ -2480,7 +2527,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="72"/>
+      <c r="B21" s="46"/>
       <c r="U21" s="1"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
@@ -2502,14 +2549,14 @@
       <c r="C24" s="5"/>
     </row>
     <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
       <c r="J26" s="19" t="s">
         <v>38</v>
       </c>
@@ -2534,7 +2581,7 @@
         <v>36</v>
       </c>
       <c r="L27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2602,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="27"/>
     </row>
@@ -2690,6 +2737,10 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:AE2"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
@@ -2703,6 +2754,9 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AI5:AI6"/>
     <mergeCell ref="D26:I26"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="A2:A6"/>
@@ -2717,13 +2771,6 @@
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C2:AI2"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
+++ b/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACCELR_internship\github\tflite-perf-tests\object_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAC715B-2D41-4980-B5C5-37E8BDC40AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E20CBD-8368-4374-A2C8-16C53A58F397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="73">
   <si>
     <t>TFLITE-COMPARISON</t>
   </si>
@@ -133,21 +133,6 @@
     <t>IOU=0.75</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">AVERAGE PRECISION- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>BASELINES</t>
-    </r>
-  </si>
-  <si>
     <t>*add Dynamic, Static, etc</t>
   </si>
   <si>
@@ -157,9 +142,6 @@
     <t>mAP</t>
   </si>
   <si>
-    <t>* check model ZOO</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -203,6 +185,60 @@
   </si>
   <si>
     <t>0 (NA)</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>PROBLEM:</t>
+  </si>
+  <si>
+    <t>1. fps values were collected based on 0.6 threshold in PYTHON</t>
+  </si>
+  <si>
+    <t>2. fps values were collected using sample images of 5</t>
+  </si>
+  <si>
+    <t>mAP BASELINES</t>
+  </si>
+  <si>
+    <t>create FIGURE</t>
+  </si>
+  <si>
+    <t>mAP (IOU=0.50:0.95)</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. ssd_mobilenet_v2 (II- STATIC) </t>
+  </si>
+  <si>
+    <t>4. ssd_mobilenet_v1_1</t>
+  </si>
+  <si>
+    <t>32 bit-baselines (num_threads=1)</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>32bit C++</t>
+  </si>
+  <si>
+    <t>32bit Python</t>
+  </si>
+  <si>
+    <t>64bit C++</t>
+  </si>
+  <si>
+    <t>64bit Python</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>Experiment</t>
   </si>
 </sst>
 </file>
@@ -263,13 +299,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -283,6 +312,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -521,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -548,7 +582,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -558,25 +591,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,7 +616,7 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,15 +633,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -620,13 +717,28 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,14 +746,8 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -664,28 +770,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,6 +797,2351 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frames</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Per Second (FPS)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AK$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1. ssd_mobilenet_v3_small</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$67:$AJ$71</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32bit C++</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32bit Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64bit C++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64bit Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$67:$AK$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0786999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9234000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9234000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9234000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77BB-4CBA-8E49-0CD46A3F3954}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AL$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2. ssd_mobilenet_v3_large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$67:$AJ$71</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32bit C++</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32bit Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64bit C++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64bit Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$67:$AL$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0070999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0617999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7248999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77BB-4CBA-8E49-0CD46A3F3954}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AM$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3. ssd_mobilenet_v2 (II- STATIC) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$67:$AJ$71</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32bit C++</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32bit Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64bit C++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64bit Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AM$67:$AM$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.9247000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.122400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.327500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.1486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.2964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77BB-4CBA-8E49-0CD46A3F3954}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AN$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4. ssd_mobilenet_v1_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$67:$AJ$71</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32bit C++</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32bit Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64bit C++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64bit Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AN$67:$AN$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.3813000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.8794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.2136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.4072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.202500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-77BB-4CBA-8E49-0CD46A3F3954}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1586219343"/>
+        <c:axId val="1290683231"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1586219343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1290683231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1290683231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586219343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>COCO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> mAP</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AQ$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1. ssd_mobilenet_v3_small</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AP$67:$AP$71</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32bit C++</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32bit Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64bit C++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64bit Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$67:$AQ$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09F5-44AC-9327-AC46A6D54B23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AR$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2. ssd_mobilenet_v3_large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AP$67:$AP$71</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32bit C++</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32bit Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64bit C++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64bit Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AR$67:$AR$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-09F5-44AC-9327-AC46A6D54B23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AS$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3. ssd_mobilenet_v2 (II- STATIC) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AP$67:$AP$71</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32bit C++</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32bit Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64bit C++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64bit Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AS$67:$AS$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-09F5-44AC-9327-AC46A6D54B23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AT$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4. ssd_mobilenet_v1_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AP$67:$AP$71</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32bit C++</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32bit Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64bit C++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64bit Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AT$67:$AT$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-09F5-44AC-9327-AC46A6D54B23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1577545967"/>
+        <c:axId val="1455771919"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1577545967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1455771919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1455771919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1577545967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>678492</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>68893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC4E981-7A22-4EF6-BB36-475A0AF40790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>272233</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>77661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA728671-C21E-4701-9C90-EFD18F91F8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -905,10 +3345,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AT71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="AE61" zoomScale="80" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="AU74" sqref="AU74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -936,353 +3376,357 @@
     <col min="28" max="28" width="14.44140625" customWidth="1"/>
     <col min="29" max="30" width="14.44140625" hidden="1" customWidth="1"/>
     <col min="32" max="35" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="28.6640625" customWidth="1"/>
+    <col min="37" max="37" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-    </row>
-    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+    </row>
+    <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="45"/>
+    </row>
+    <row r="3" spans="1:37" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="97"/>
+    </row>
+    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+    </row>
+    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="77"/>
-    </row>
-    <row r="3" spans="1:38" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="71"/>
-    </row>
-    <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-    </row>
-    <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="47" t="s">
+      <c r="F5" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="56" t="s">
+      <c r="L5" s="72"/>
+      <c r="M5" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="48"/>
-      <c r="O5" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="47" t="s">
+      <c r="N5" s="72"/>
+      <c r="O5" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="S5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="52" t="s">
+      <c r="T5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="54" t="s">
+      <c r="U5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="47" t="s">
+      <c r="V5" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="47" t="s">
+      <c r="Z5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="AA5" s="56" t="s">
+      <c r="AA5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="56" t="s">
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="47" t="s">
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="47" t="s">
+      <c r="AI5" s="71" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+    <row r="6" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
       <c r="B6" s="63"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="20" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="22" t="s">
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="20" t="s">
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="20" t="s">
+      <c r="W6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="22" t="s">
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="23" t="s">
+      <c r="AB6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="22" t="s">
+      <c r="AC6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AD6" s="23" t="s">
+      <c r="AD6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AE6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AF6" s="20" t="s">
+      <c r="AF6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AG6" s="20" t="s">
+      <c r="AG6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-    </row>
-    <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="39">
         <v>0.17799999999999999</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="7">
         <v>8.5198999999999998</v>
       </c>
       <c r="E7" s="7">
         <v>8.9611999999999998</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="F7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1322,11 +3766,11 @@
       <c r="U7" s="7">
         <v>16.486599999999999</v>
       </c>
-      <c r="V7" s="41">
+      <c r="V7" s="38">
         <v>0</v>
       </c>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
       <c r="Y7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1361,25 +3805,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="39">
         <v>0.24</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="7">
         <v>3.6566000000000001</v>
       </c>
       <c r="E8" s="7">
         <v>4.0309999999999997</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="28">
         <v>0</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1419,11 +3863,11 @@
       <c r="U8" s="7">
         <v>7.4348000000000001</v>
       </c>
-      <c r="V8" s="31">
+      <c r="V8" s="28">
         <v>0</v>
       </c>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
       <c r="Y8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1458,14 +3902,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="43"/>
+    <row r="9" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="40"/>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1529,11 +3973,11 @@
       <c r="AD9" s="7">
         <v>1.1094999999999999</v>
       </c>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31">
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AG9" s="31">
+      <c r="AG9" s="28">
         <v>0.155</v>
       </c>
       <c r="AH9" s="6" t="s">
@@ -1543,14 +3987,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="43"/>
+    <row r="10" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="40"/>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1610,11 +4054,11 @@
       <c r="AD10" s="7">
         <v>1.294</v>
       </c>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31">
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28">
         <v>0.17599999999999999</v>
       </c>
-      <c r="AG10" s="31">
+      <c r="AG10" s="28">
         <v>0.151</v>
       </c>
       <c r="AH10" s="6" t="s">
@@ -1624,14 +4068,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="43"/>
+    <row r="11" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="40"/>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1695,11 +4139,11 @@
       <c r="AD11" s="7">
         <v>4.1999000000000004</v>
       </c>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31">
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AG11" s="31">
+      <c r="AG11" s="28">
         <v>0.11600000000000001</v>
       </c>
       <c r="AH11" s="6" t="s">
@@ -1709,23 +4153,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="10" t="s">
         <v>16</v>
       </c>
@@ -1780,11 +4224,11 @@
       <c r="AD12" s="7">
         <v>4.9962999999999997</v>
       </c>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31">
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AG12" s="31">
+      <c r="AG12" s="28">
         <v>0.108</v>
       </c>
       <c r="AH12" s="6" t="s">
@@ -1795,29 +4239,28 @@
       </c>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-    </row>
-    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="44">
+    </row>
+    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="41">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="12">
         <v>11.8931</v>
       </c>
       <c r="E13" s="12">
         <v>12.122400000000001</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>0.20399999999999999</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>0.13900000000000001</v>
       </c>
       <c r="I13" s="11" t="s">
@@ -1902,14 +4345,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="43"/>
+    <row r="14" spans="1:37" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="40"/>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
@@ -1973,11 +4416,11 @@
       <c r="AD14" s="7">
         <v>0.27600000000000002</v>
       </c>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31">
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AG14" s="31">
+      <c r="AG14" s="28">
         <v>0.13200000000000001</v>
       </c>
       <c r="AH14" s="6" t="s">
@@ -1987,14 +4430,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="43"/>
+    <row r="15" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="40"/>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
@@ -2058,11 +4501,11 @@
       <c r="AD15" s="7">
         <v>0.1111</v>
       </c>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31">
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28">
         <v>0.14899999999999999</v>
       </c>
-      <c r="AG15" s="31">
+      <c r="AG15" s="28">
         <v>0.13900000000000001</v>
       </c>
       <c r="AH15" s="6" t="s">
@@ -2072,27 +4515,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="39">
         <v>0.14799999999999999</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="13">
         <v>15.230700000000001</v>
       </c>
       <c r="E16" s="12">
         <v>15.8794</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <v>0.14799999999999999</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="23">
         <v>0.23300000000000001</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <v>0.154</v>
       </c>
       <c r="I16" s="11" t="s">
@@ -2101,7 +4544,7 @@
       <c r="J16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="14">
         <v>15.3744</v>
       </c>
       <c r="L16" s="13">
@@ -2152,7 +4595,7 @@
       <c r="AA16" s="13">
         <v>19.525500000000001</v>
       </c>
-      <c r="AB16" s="15">
+      <c r="AB16" s="14">
         <v>19.202500000000001</v>
       </c>
       <c r="AC16" s="12">
@@ -2178,101 +4621,101 @@
       </c>
     </row>
     <row r="17" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>50</v>
+      <c r="B17" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="C17">
         <v>0.111</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="32">
         <v>14.939500000000001</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="33">
         <v>15.9551</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="34">
         <v>0.14799999999999999</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="34">
         <v>0.23300000000000001</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="34">
         <v>0.154</v>
       </c>
-      <c r="I17" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="38">
+      <c r="I17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="35">
         <v>13.662800000000001</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="32">
         <v>13.752000000000001</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="32">
         <v>13.3429</v>
       </c>
-      <c r="N17" s="35">
+      <c r="N17" s="32">
         <v>13.536799999999999</v>
       </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="39">
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="36">
         <v>18.9712</v>
       </c>
-      <c r="U17" s="36">
+      <c r="U17" s="33">
         <v>19.6126</v>
       </c>
-      <c r="V17" s="36">
+      <c r="V17" s="33">
         <v>0.14699999999999999</v>
       </c>
-      <c r="W17" s="36">
+      <c r="W17" s="33">
         <v>0.23300000000000001</v>
       </c>
-      <c r="X17" s="36">
+      <c r="X17" s="33">
         <v>0.154</v>
       </c>
-      <c r="Y17" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA17" s="35">
+      <c r="Y17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="32">
         <v>18.937200000000001</v>
       </c>
-      <c r="AB17" s="35">
+      <c r="AB17" s="32">
         <v>19.0989</v>
       </c>
-      <c r="AC17" s="39">
+      <c r="AC17" s="36">
         <v>17.856100000000001</v>
       </c>
-      <c r="AD17" s="35">
+      <c r="AD17" s="32">
         <v>17.753299999999999</v>
       </c>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40">
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AG17" s="40">
+      <c r="AG17" s="37">
         <v>0.11799999999999999</v>
       </c>
-      <c r="AH17" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI17" s="34" t="s">
+      <c r="AH17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI17" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2280,10 +4723,10 @@
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="18"/>
+      <c r="B18" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="7">
         <v>12.8</v>
       </c>
@@ -2347,11 +4790,11 @@
       <c r="AD18" s="7">
         <v>14.2798</v>
       </c>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG18" s="31" t="s">
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG18" s="28" t="s">
         <v>16</v>
       </c>
       <c r="AH18" s="6" t="s">
@@ -2365,8 +4808,8 @@
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>50</v>
+      <c r="B19" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="D19" s="7">
         <v>14.7342</v>
@@ -2429,9 +4872,9 @@
         <v>16</v>
       </c>
       <c r="AD19" s="7"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
       <c r="AH19" s="6" t="s">
         <v>16</v>
       </c>
@@ -2440,14 +4883,14 @@
       </c>
     </row>
     <row r="20" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>42</v>
+      <c r="B20" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D20" s="7">
         <v>31.8306</v>
@@ -2506,17 +4949,17 @@
       <c r="AB20" s="7">
         <v>35.758699999999997</v>
       </c>
-      <c r="AC20" s="16">
+      <c r="AC20" s="15">
         <v>53.032899999999998</v>
       </c>
       <c r="AD20" s="6">
         <v>40.878900000000002</v>
       </c>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="33">
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="30">
         <v>1E-3</v>
       </c>
-      <c r="AG20" s="33">
+      <c r="AG20" s="30">
         <v>1E-3</v>
       </c>
       <c r="AH20" s="6" t="s">
@@ -2527,7 +4970,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
+      <c r="B21" s="43"/>
       <c r="U21" s="1"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
@@ -2549,52 +4992,48 @@
       <c r="C24" s="5"/>
     </row>
     <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="49" t="s">
+      <c r="B26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="19" t="s">
+      <c r="K26" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="L26" s="47"/>
     </row>
     <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17" t="s">
         <v>36</v>
       </c>
       <c r="L27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="39">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="C28" s="25"/>
       <c r="D28">
         <v>0.13900000000000001</v>
-      </c>
-      <c r="E28">
-        <v>0.186</v>
       </c>
       <c r="I28">
         <v>0.14599999999999999</v>
@@ -2604,94 +5043,101 @@
       <c r="A29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="39">
+        <v>0.24</v>
+      </c>
+      <c r="C29" s="25"/>
       <c r="D29">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E29">
-        <v>0.27400000000000002</v>
-      </c>
       <c r="I29">
         <v>0.223</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-    </row>
-    <row r="31" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-    </row>
-    <row r="32" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+    </row>
+    <row r="34" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="27"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="B34" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="L34" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+    </row>
+    <row r="36" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+    </row>
+    <row r="37" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="39">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C37" s="46"/>
       <c r="D37">
         <v>0.111</v>
       </c>
-      <c r="E37">
-        <v>0.16500000000000001</v>
-      </c>
       <c r="I37">
         <v>0.11799999999999999</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="L37" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
       <c r="D38">
         <v>0.111</v>
       </c>
@@ -2701,30 +5147,30 @@
       <c r="I38">
         <v>0.11799999999999999</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+    </row>
+    <row r="40" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+    </row>
+    <row r="41" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
       <c r="D41">
         <v>1E-3</v>
       </c>
@@ -2735,12 +5181,505 @@
         <v>1E-3</v>
       </c>
     </row>
+    <row r="42" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+    </row>
+    <row r="45" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ45" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK45" s="68"/>
+      <c r="AL45" s="68"/>
+      <c r="AM45" s="68"/>
+      <c r="AN45" s="68"/>
+      <c r="AO45" s="68"/>
+    </row>
+    <row r="46" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ46" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL46" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM46" s="65"/>
+      <c r="AN46" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO46" s="66"/>
+    </row>
+    <row r="47" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ47" s="64"/>
+      <c r="AK47" s="67"/>
+      <c r="AL47" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM47" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN47" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO47" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ48" s="64"/>
+      <c r="AK48" s="67"/>
+      <c r="AL48" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM48" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN48" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO48" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK49" s="39">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AL49" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM49" s="7">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AN49" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO49" s="7">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK50" s="39">
+        <v>0.24</v>
+      </c>
+      <c r="AL50" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM50" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="AN50" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO50" s="7">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="51" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ51" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK51" s="41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AL51" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AM51" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AN51" s="12">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AO51" s="12">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ52" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK52" s="39">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AL52" s="23">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AM52" s="13">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AN52" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AO52" s="13">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ53" s="42"/>
+      <c r="AK53" s="46"/>
+      <c r="AL53" s="53"/>
+      <c r="AM53" s="54"/>
+      <c r="AN53" s="54"/>
+      <c r="AO53" s="54"/>
+    </row>
+    <row r="54" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ54" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK54" s="68"/>
+      <c r="AL54" s="68"/>
+      <c r="AM54" s="68"/>
+      <c r="AN54" s="68"/>
+      <c r="AO54" s="68"/>
+    </row>
+    <row r="55" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ55" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK55" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL55" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM55" s="65"/>
+      <c r="AN55" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO55" s="66"/>
+    </row>
+    <row r="56" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ56" s="64"/>
+      <c r="AK56" s="67"/>
+      <c r="AL56" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM56" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN56" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO56" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="36:41" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ57" s="64"/>
+      <c r="AK57" s="67"/>
+      <c r="AL57" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM57" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN57" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO57" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK58" s="39"/>
+      <c r="AL58" s="7">
+        <v>8.9611999999999998</v>
+      </c>
+      <c r="AM58" s="7">
+        <v>8.9234000000000009</v>
+      </c>
+      <c r="AN58" s="7">
+        <v>16.486599999999999</v>
+      </c>
+      <c r="AO58" s="7">
+        <v>19.9146</v>
+      </c>
+    </row>
+    <row r="59" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK59" s="39"/>
+      <c r="AL59" s="7">
+        <v>4.0309999999999997</v>
+      </c>
+      <c r="AM59" s="7">
+        <v>4.0617999999999999</v>
+      </c>
+      <c r="AN59" s="7">
+        <v>7.4348000000000001</v>
+      </c>
+      <c r="AO59" s="7">
+        <v>8.7248999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ60" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK60" s="41"/>
+      <c r="AL60" s="12">
+        <v>12.122400000000001</v>
+      </c>
+      <c r="AM60" s="12">
+        <v>12.327500000000001</v>
+      </c>
+      <c r="AN60" s="12">
+        <v>15.1486</v>
+      </c>
+      <c r="AO60" s="12">
+        <v>14.2964</v>
+      </c>
+    </row>
+    <row r="61" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ61" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK61" s="39"/>
+      <c r="AL61" s="12">
+        <v>15.8794</v>
+      </c>
+      <c r="AM61" s="13">
+        <v>15.2136</v>
+      </c>
+      <c r="AN61" s="12">
+        <v>19.4072</v>
+      </c>
+      <c r="AO61" s="14">
+        <v>19.202500000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="36:46" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ65" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK65" s="60"/>
+      <c r="AL65" s="60"/>
+      <c r="AM65" s="60"/>
+      <c r="AN65" s="60"/>
+      <c r="AP65" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ65" s="60"/>
+      <c r="AR65" s="60"/>
+      <c r="AS65" s="60"/>
+      <c r="AT65" s="60"/>
+    </row>
+    <row r="66" spans="36:46" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ66" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK66" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL66" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM66" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN66" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP66" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ66" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR66" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS66" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT66" s="57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="36:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ67" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK67" s="59">
+        <v>8.0786999999999995</v>
+      </c>
+      <c r="AL67" s="59">
+        <v>3.0070999999999999</v>
+      </c>
+      <c r="AM67" s="98">
+        <v>3.9247000000000001</v>
+      </c>
+      <c r="AN67" s="59">
+        <v>5.3813000000000004</v>
+      </c>
+      <c r="AO67" s="99"/>
+      <c r="AP67" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ67" s="59">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AR67" s="59">
+        <v>0.24</v>
+      </c>
+      <c r="AS67" s="58">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AT67" s="59">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="36:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ68" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK68" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL68" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM68" s="59">
+        <v>12.122400000000001</v>
+      </c>
+      <c r="AN68" s="59">
+        <v>15.8794</v>
+      </c>
+      <c r="AO68" s="99"/>
+      <c r="AP68" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ68" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR68" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS68" s="58">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AT68" s="58">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="36:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ69" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK69" s="59">
+        <v>8.9234000000000009</v>
+      </c>
+      <c r="AL69" s="59">
+        <v>4.0617999999999999</v>
+      </c>
+      <c r="AM69" s="59">
+        <v>12.327500000000001</v>
+      </c>
+      <c r="AN69" s="59">
+        <v>15.2136</v>
+      </c>
+      <c r="AO69" s="99"/>
+      <c r="AP69" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ69" s="59">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AR69" s="59">
+        <v>0.24</v>
+      </c>
+      <c r="AS69" s="59">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AT69" s="59">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="36:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ70" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK70" s="59">
+        <v>8.9234000000000009</v>
+      </c>
+      <c r="AL70" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM70" s="59">
+        <v>15.1486</v>
+      </c>
+      <c r="AN70" s="59">
+        <v>19.4072</v>
+      </c>
+      <c r="AO70" s="99"/>
+      <c r="AP70" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ70" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR70" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS70" s="59">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AT70" s="59">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="36:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ71" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK71" s="59">
+        <v>8.9234000000000009</v>
+      </c>
+      <c r="AL71" s="59">
+        <v>8.7248999999999999</v>
+      </c>
+      <c r="AM71" s="59">
+        <v>14.2964</v>
+      </c>
+      <c r="AN71" s="59">
+        <v>19.202500000000001</v>
+      </c>
+      <c r="AO71" s="99"/>
+      <c r="AP71" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ71" s="59">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AR71" s="59">
+        <v>0.24</v>
+      </c>
+      <c r="AS71" s="59">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AT71" s="59">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:AE2"/>
-    <mergeCell ref="B2:B4"/>
+  <mergeCells count="46">
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
@@ -2757,22 +5696,39 @@
     <mergeCell ref="AE5:AG5"/>
     <mergeCell ref="AH5:AH6"/>
     <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="AC5:AD5"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="D4:J4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:AE2"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="K4:S4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="AJ65:AN65"/>
+    <mergeCell ref="AP65:AT65"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="AJ55:AJ57"/>
+    <mergeCell ref="AL55:AM55"/>
+    <mergeCell ref="AN55:AO55"/>
+    <mergeCell ref="AJ46:AJ48"/>
+    <mergeCell ref="AL46:AM46"/>
+    <mergeCell ref="AN46:AO46"/>
+    <mergeCell ref="AK55:AK57"/>
+    <mergeCell ref="AK46:AK48"/>
+    <mergeCell ref="AJ45:AO45"/>
+    <mergeCell ref="AJ54:AO54"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="S5:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
+++ b/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACCELR_internship\github\tflite-perf-tests\object_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E20CBD-8368-4374-A2C8-16C53A58F397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3251403-BD15-40C9-BCFD-546917B95B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="76">
   <si>
     <t>TFLITE-COMPARISON</t>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>Experiment</t>
+  </si>
+  <si>
+    <t>FPS- without heat sink/fans</t>
+  </si>
+  <si>
+    <t>FPS- with heat sink/fans</t>
+  </si>
+  <si>
+    <t>FPS- with heat sink/fans- corrected fps</t>
   </si>
 </sst>
 </file>
@@ -321,7 +330,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +431,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -555,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -672,72 +687,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -749,38 +761,56 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,19 +964,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.0786999999999995</c:v>
+                  <c:v>8.2446999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9234000000000009</c:v>
+                  <c:v>8.7626000000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9234000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9234000000000009</c:v>
+                  <c:v>18.475000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,19 +1041,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.0070999999999999</c:v>
+                  <c:v>2.9859</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0617999999999999</c:v>
+                  <c:v>3.9180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7248999999999999</c:v>
+                  <c:v>8.1403999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,19 +1118,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.9247000000000001</c:v>
+                  <c:v>4.0262000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.122400000000001</c:v>
+                  <c:v>12.648999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.327500000000001</c:v>
+                  <c:v>12.8385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.1486</c:v>
+                  <c:v>17.152999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.2964</c:v>
+                  <c:v>17.059699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,19 +1195,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.3813000000000004</c:v>
+                  <c:v>5.4377000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.8794</c:v>
+                  <c:v>16.293800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.2136</c:v>
+                  <c:v>16.600899999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.4072</c:v>
+                  <c:v>22.811699999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.202500000000001</c:v>
+                  <c:v>22.2758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3345,10 +3375,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AT71"/>
+  <dimension ref="A1:AZ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE61" zoomScale="80" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="AU74" sqref="AU74"/>
+    <sheetView tabSelected="1" topLeftCell="V59" zoomScale="73" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="AN69" sqref="AN69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3381,262 +3411,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="91" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="44"/>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="95"/>
       <c r="AF2" s="44"/>
       <c r="AG2" s="44"/>
       <c r="AH2" s="44"/>
       <c r="AI2" s="45"/>
     </row>
     <row r="3" spans="1:37" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="92" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="95" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="97"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="85"/>
     </row>
     <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="79" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="87" t="s">
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="79" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="87" t="s">
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
     </row>
     <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="71" t="s">
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73" t="s">
+      <c r="L5" s="76"/>
+      <c r="M5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="72"/>
-      <c r="O5" s="90" t="s">
+      <c r="N5" s="76"/>
+      <c r="O5" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="71" t="s">
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="71" t="s">
+      <c r="S5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="75" t="s">
+      <c r="T5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="77" t="s">
+      <c r="U5" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="89" t="s">
+      <c r="V5" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="71" t="s">
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="71" t="s">
+      <c r="Z5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AA5" s="73" t="s">
+      <c r="AA5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="73" t="s">
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="90" t="s">
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="71" t="s">
+      <c r="AF5" s="89"/>
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="71" t="s">
+      <c r="AI5" s="75" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="78"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="19" t="s">
         <v>34</v>
       </c>
@@ -3646,8 +3676,8 @@
       <c r="H6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="21" t="s">
         <v>5</v>
       </c>
@@ -3669,10 +3699,10 @@
       <c r="Q6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="78"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="74"/>
       <c r="V6" s="19" t="s">
         <v>34</v>
       </c>
@@ -3682,8 +3712,8 @@
       <c r="X6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
       <c r="AA6" s="21" t="s">
         <v>5</v>
       </c>
@@ -3705,8 +3735,8 @@
       <c r="AG6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
     </row>
     <row r="7" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -4995,12 +5025,12 @@
       <c r="B26" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
       <c r="J26" s="18" t="s">
         <v>37</v>
       </c>
@@ -5190,34 +5220,34 @@
       <c r="A45" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AJ45" s="68" t="s">
+      <c r="AJ45" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="AK45" s="68"/>
-      <c r="AL45" s="68"/>
-      <c r="AM45" s="68"/>
-      <c r="AN45" s="68"/>
-      <c r="AO45" s="68"/>
+      <c r="AK45" s="104"/>
+      <c r="AL45" s="104"/>
+      <c r="AM45" s="104"/>
+      <c r="AN45" s="104"/>
+      <c r="AO45" s="104"/>
     </row>
     <row r="46" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ46" s="64" t="s">
+      <c r="AJ46" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="AK46" s="67" t="s">
+      <c r="AK46" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="AL46" s="65" t="s">
+      <c r="AL46" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="AM46" s="65"/>
-      <c r="AN46" s="66" t="s">
+      <c r="AM46" s="101"/>
+      <c r="AN46" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="AO46" s="66"/>
+      <c r="AO46" s="102"/>
     </row>
     <row r="47" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ47" s="64"/>
-      <c r="AK47" s="67"/>
+      <c r="AJ47" s="100"/>
+      <c r="AK47" s="103"/>
       <c r="AL47" s="51" t="s">
         <v>3</v>
       </c>
@@ -5232,8 +5262,8 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ48" s="64"/>
-      <c r="AK48" s="67"/>
+      <c r="AJ48" s="100"/>
+      <c r="AK48" s="103"/>
       <c r="AL48" s="19" t="s">
         <v>61</v>
       </c>
@@ -5336,34 +5366,34 @@
       <c r="AO53" s="54"/>
     </row>
     <row r="54" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ54" s="68" t="s">
+      <c r="AJ54" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="AK54" s="68"/>
-      <c r="AL54" s="68"/>
-      <c r="AM54" s="68"/>
-      <c r="AN54" s="68"/>
-      <c r="AO54" s="68"/>
+      <c r="AK54" s="104"/>
+      <c r="AL54" s="104"/>
+      <c r="AM54" s="104"/>
+      <c r="AN54" s="104"/>
+      <c r="AO54" s="104"/>
     </row>
     <row r="55" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ55" s="64" t="s">
+      <c r="AJ55" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="AK55" s="67" t="s">
+      <c r="AK55" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="AL55" s="65" t="s">
+      <c r="AL55" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="AM55" s="65"/>
-      <c r="AN55" s="66" t="s">
+      <c r="AM55" s="101"/>
+      <c r="AN55" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="AO55" s="66"/>
+      <c r="AO55" s="102"/>
     </row>
     <row r="56" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ56" s="64"/>
-      <c r="AK56" s="67"/>
+      <c r="AJ56" s="100"/>
+      <c r="AK56" s="103"/>
       <c r="AL56" s="51" t="s">
         <v>3</v>
       </c>
@@ -5378,8 +5408,8 @@
       </c>
     </row>
     <row r="57" spans="36:41" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ57" s="64"/>
-      <c r="AK57" s="67"/>
+      <c r="AJ57" s="100"/>
+      <c r="AK57" s="103"/>
       <c r="AL57" s="19" t="s">
         <v>6</v>
       </c>
@@ -5465,23 +5495,30 @@
         <v>19.202500000000001</v>
       </c>
     </row>
-    <row r="65" spans="36:46" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ65" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK65" s="60"/>
-      <c r="AL65" s="60"/>
-      <c r="AM65" s="60"/>
-      <c r="AN65" s="60"/>
-      <c r="AP65" s="60" t="s">
+    <row r="65" spans="36:52" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ65" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK65" s="65"/>
+      <c r="AL65" s="65"/>
+      <c r="AM65" s="65"/>
+      <c r="AN65" s="66"/>
+      <c r="AP65" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AQ65" s="60"/>
-      <c r="AR65" s="60"/>
-      <c r="AS65" s="60"/>
-      <c r="AT65" s="60"/>
-    </row>
-    <row r="66" spans="36:46" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ65" s="68"/>
+      <c r="AR65" s="68"/>
+      <c r="AS65" s="68"/>
+      <c r="AT65" s="69"/>
+      <c r="AV65" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW65" s="68"/>
+      <c r="AX65" s="68"/>
+      <c r="AY65" s="68"/>
+      <c r="AZ65" s="69"/>
+    </row>
+    <row r="66" spans="36:52" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AJ66" s="55" t="s">
         <v>72</v>
       </c>
@@ -5512,25 +5549,40 @@
       <c r="AT66" s="57" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="36:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV66" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW66" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX66" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY66" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ66" s="57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AJ67" s="55" t="s">
         <v>66</v>
       </c>
       <c r="AK67" s="59">
-        <v>8.0786999999999995</v>
+        <v>8.2446999999999999</v>
       </c>
       <c r="AL67" s="59">
-        <v>3.0070999999999999</v>
-      </c>
-      <c r="AM67" s="98">
-        <v>3.9247000000000001</v>
+        <v>2.9859</v>
+      </c>
+      <c r="AM67" s="60">
+        <v>4.0262000000000002</v>
       </c>
       <c r="AN67" s="59">
-        <v>5.3813000000000004</v>
-      </c>
-      <c r="AO67" s="99"/>
-      <c r="AP67" s="101" t="s">
+        <v>5.4377000000000004</v>
+      </c>
+      <c r="AO67" s="61"/>
+      <c r="AP67" s="63" t="s">
         <v>66</v>
       </c>
       <c r="AQ67" s="59">
@@ -5545,8 +5597,23 @@
       <c r="AT67" s="59">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="36:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV67" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW67" s="59">
+        <v>8.0786999999999995</v>
+      </c>
+      <c r="AX67" s="59">
+        <v>3.0070999999999999</v>
+      </c>
+      <c r="AY67" s="60">
+        <v>3.9247000000000001</v>
+      </c>
+      <c r="AZ67" s="59">
+        <v>5.3813000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AJ68" s="55" t="s">
         <v>67</v>
       </c>
@@ -5557,13 +5624,13 @@
         <v>40</v>
       </c>
       <c r="AM68" s="59">
-        <v>12.122400000000001</v>
+        <v>12.648999999999999</v>
       </c>
       <c r="AN68" s="59">
-        <v>15.8794</v>
-      </c>
-      <c r="AO68" s="99"/>
-      <c r="AP68" s="101" t="s">
+        <v>16.293800000000001</v>
+      </c>
+      <c r="AO68" s="61"/>
+      <c r="AP68" s="63" t="s">
         <v>67</v>
       </c>
       <c r="AQ68" s="58" t="s">
@@ -5578,25 +5645,40 @@
       <c r="AT68" s="58">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="36:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV68" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW68" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX68" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY68" s="59">
+        <v>12.122400000000001</v>
+      </c>
+      <c r="AZ68" s="59">
+        <v>15.8794</v>
+      </c>
+    </row>
+    <row r="69" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AJ69" s="55" t="s">
         <v>68</v>
       </c>
       <c r="AK69" s="59">
-        <v>8.9234000000000009</v>
+        <v>8.7626000000000008</v>
       </c>
       <c r="AL69" s="59">
-        <v>4.0617999999999999</v>
+        <v>3.9180000000000001</v>
       </c>
       <c r="AM69" s="59">
-        <v>12.327500000000001</v>
+        <v>12.8385</v>
       </c>
       <c r="AN69" s="59">
-        <v>15.2136</v>
-      </c>
-      <c r="AO69" s="99"/>
-      <c r="AP69" s="101" t="s">
+        <v>16.600899999999999</v>
+      </c>
+      <c r="AO69" s="61"/>
+      <c r="AP69" s="63" t="s">
         <v>68</v>
       </c>
       <c r="AQ69" s="59">
@@ -5611,28 +5693,43 @@
       <c r="AT69" s="59">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="36:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV69" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW69" s="59">
+        <v>8.9234000000000009</v>
+      </c>
+      <c r="AX69" s="59">
+        <v>4.0617999999999999</v>
+      </c>
+      <c r="AY69" s="59">
+        <v>12.327500000000001</v>
+      </c>
+      <c r="AZ69" s="59">
+        <v>15.2136</v>
+      </c>
+    </row>
+    <row r="70" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AJ70" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="AK70" s="59">
-        <v>8.9234000000000009</v>
+      <c r="AK70" s="59" t="s">
+        <v>40</v>
       </c>
       <c r="AL70" s="58" t="s">
         <v>40</v>
       </c>
       <c r="AM70" s="59">
-        <v>15.1486</v>
+        <v>17.152999999999999</v>
       </c>
       <c r="AN70" s="59">
-        <v>19.4072</v>
-      </c>
-      <c r="AO70" s="99"/>
-      <c r="AP70" s="101" t="s">
+        <v>22.811699999999998</v>
+      </c>
+      <c r="AO70" s="61"/>
+      <c r="AP70" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="AQ70" s="100" t="s">
+      <c r="AQ70" s="62" t="s">
         <v>40</v>
       </c>
       <c r="AR70" s="58" t="s">
@@ -5644,25 +5741,40 @@
       <c r="AT70" s="59">
         <v>0.14699999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="36:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV70" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW70" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX70" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY70" s="59">
+        <v>15.1486</v>
+      </c>
+      <c r="AZ70" s="59">
+        <v>19.4072</v>
+      </c>
+    </row>
+    <row r="71" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AJ71" s="55" t="s">
         <v>70</v>
       </c>
       <c r="AK71" s="59">
-        <v>8.9234000000000009</v>
+        <v>18.475000000000001</v>
       </c>
       <c r="AL71" s="59">
-        <v>8.7248999999999999</v>
+        <v>8.1403999999999996</v>
       </c>
       <c r="AM71" s="59">
-        <v>14.2964</v>
+        <v>17.059699999999999</v>
       </c>
       <c r="AN71" s="59">
-        <v>19.202500000000001</v>
-      </c>
-      <c r="AO71" s="99"/>
-      <c r="AP71" s="101" t="s">
+        <v>22.2758</v>
+      </c>
+      <c r="AO71" s="61"/>
+      <c r="AP71" s="63" t="s">
         <v>70</v>
       </c>
       <c r="AQ71" s="59">
@@ -5677,23 +5789,151 @@
       <c r="AT71" s="59">
         <v>0.14699999999999999</v>
       </c>
+      <c r="AV71" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW71" s="59">
+        <v>8.9234000000000009</v>
+      </c>
+      <c r="AX71" s="59">
+        <v>8.7248999999999999</v>
+      </c>
+      <c r="AY71" s="59">
+        <v>14.2964</v>
+      </c>
+      <c r="AZ71" s="59">
+        <v>19.202500000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV73" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW73" s="65"/>
+      <c r="AX73" s="65"/>
+      <c r="AY73" s="65"/>
+      <c r="AZ73" s="66"/>
+    </row>
+    <row r="74" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV74" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW74" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX74" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY74" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ74" s="57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV75" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW75" s="59">
+        <v>8.2819000000000003</v>
+      </c>
+      <c r="AX75" s="59">
+        <v>3.0143</v>
+      </c>
+      <c r="AY75" s="60">
+        <v>4.0194000000000001</v>
+      </c>
+      <c r="AZ75" s="59">
+        <v>5.4329999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV76" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW76" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX76" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY76" s="59">
+        <v>12.633900000000001</v>
+      </c>
+      <c r="AZ76" s="59">
+        <v>16.199200000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV77" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW77" s="59">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="AX77" s="59">
+        <v>3.9462000000000002</v>
+      </c>
+      <c r="AY77" s="59">
+        <v>12.818300000000001</v>
+      </c>
+      <c r="AZ77" s="59">
+        <v>16.453499999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV78" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW78" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX78" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY78" s="59">
+        <v>16.847300000000001</v>
+      </c>
+      <c r="AZ78" s="59">
+        <v>21.959299999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV79" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW79" s="59">
+        <v>18.676300000000001</v>
+      </c>
+      <c r="AX79" s="59">
+        <v>8.2623999999999995</v>
+      </c>
+      <c r="AY79" s="59">
+        <v>17.114899999999999</v>
+      </c>
+      <c r="AZ79" s="59">
+        <v>22.3522</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="T4:Z4"/>
-    <mergeCell ref="D3:S3"/>
-    <mergeCell ref="T3:AI3"/>
-    <mergeCell ref="AA4:AI4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AE5:AG5"/>
+  <mergeCells count="48">
+    <mergeCell ref="AJ65:AN65"/>
+    <mergeCell ref="AP65:AT65"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="AJ55:AJ57"/>
+    <mergeCell ref="AL55:AM55"/>
+    <mergeCell ref="AN55:AO55"/>
+    <mergeCell ref="AJ46:AJ48"/>
+    <mergeCell ref="AL46:AM46"/>
+    <mergeCell ref="AN46:AO46"/>
+    <mergeCell ref="AK55:AK57"/>
+    <mergeCell ref="AK46:AK48"/>
+    <mergeCell ref="AJ45:AO45"/>
+    <mergeCell ref="AJ54:AO54"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="S5:S6"/>
     <mergeCell ref="AH5:AH6"/>
     <mergeCell ref="AI5:AI6"/>
     <mergeCell ref="K5:L5"/>
@@ -5710,22 +5950,22 @@
     <mergeCell ref="K4:S4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="AJ65:AN65"/>
-    <mergeCell ref="AP65:AT65"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="AJ55:AJ57"/>
-    <mergeCell ref="AL55:AM55"/>
-    <mergeCell ref="AN55:AO55"/>
-    <mergeCell ref="AJ46:AJ48"/>
-    <mergeCell ref="AL46:AM46"/>
-    <mergeCell ref="AN46:AO46"/>
-    <mergeCell ref="AK55:AK57"/>
-    <mergeCell ref="AK46:AK48"/>
-    <mergeCell ref="AJ45:AO45"/>
-    <mergeCell ref="AJ54:AO54"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="AV73:AZ73"/>
+    <mergeCell ref="AV65:AZ65"/>
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="T4:Z4"/>
+    <mergeCell ref="D3:S3"/>
+    <mergeCell ref="T3:AI3"/>
+    <mergeCell ref="AA4:AI4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AE5:AG5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
+++ b/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACCELR_internship\github\tflite-perf-tests\object_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3251403-BD15-40C9-BCFD-546917B95B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25CA348-85C1-4731-8A9C-AF4BF5D7FFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9924" yWindow="84" windowWidth="12480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -717,39 +717,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,55 +791,25 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3377,8 +3377,8 @@
   </sheetPr>
   <dimension ref="A1:AZ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V59" zoomScale="73" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="AN69" sqref="AN69"/>
+    <sheetView tabSelected="1" topLeftCell="AJ58" zoomScale="59" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="AS76" sqref="AS76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3411,262 +3411,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="90" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="44"/>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
       <c r="AF2" s="44"/>
       <c r="AG2" s="44"/>
       <c r="AH2" s="44"/>
       <c r="AI2" s="45"/>
     </row>
     <row r="3" spans="1:37" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="80" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="83" t="s">
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="85"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="105"/>
+      <c r="AI3" s="106"/>
     </row>
     <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="78" t="s">
+      <c r="A4" s="81"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="86" t="s">
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="78" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="86" t="s">
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
     </row>
     <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="99" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="75" t="s">
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="77" t="s">
+      <c r="K5" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="77" t="s">
+      <c r="L5" s="81"/>
+      <c r="M5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="76"/>
-      <c r="O5" s="89" t="s">
+      <c r="N5" s="81"/>
+      <c r="O5" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="75" t="s">
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="75" t="s">
+      <c r="S5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="71" t="s">
+      <c r="T5" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="73" t="s">
+      <c r="U5" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="88" t="s">
+      <c r="V5" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="75" t="s">
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="75" t="s">
+      <c r="Z5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="AA5" s="77" t="s">
+      <c r="AA5" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="77" t="s">
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="89" t="s">
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="AF5" s="89"/>
-      <c r="AG5" s="89"/>
-      <c r="AH5" s="75" t="s">
+      <c r="AF5" s="99"/>
+      <c r="AG5" s="99"/>
+      <c r="AH5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="75" t="s">
+      <c r="AI5" s="80" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="74"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="19" t="s">
         <v>34</v>
       </c>
@@ -3676,8 +3676,8 @@
       <c r="H6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="21" t="s">
         <v>5</v>
       </c>
@@ -3699,10 +3699,10 @@
       <c r="Q6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="74"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="87"/>
       <c r="V6" s="19" t="s">
         <v>34</v>
       </c>
@@ -3712,8 +3712,8 @@
       <c r="X6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
       <c r="AA6" s="21" t="s">
         <v>5</v>
       </c>
@@ -3735,8 +3735,8 @@
       <c r="AG6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
+      <c r="AH6" s="81"/>
+      <c r="AI6" s="81"/>
     </row>
     <row r="7" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -5025,12 +5025,12 @@
       <c r="B26" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
       <c r="J26" s="18" t="s">
         <v>37</v>
       </c>
@@ -5220,34 +5220,34 @@
       <c r="A45" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AJ45" s="104" t="s">
+      <c r="AJ45" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="AK45" s="104"/>
-      <c r="AL45" s="104"/>
-      <c r="AM45" s="104"/>
-      <c r="AN45" s="104"/>
-      <c r="AO45" s="104"/>
+      <c r="AK45" s="77"/>
+      <c r="AL45" s="77"/>
+      <c r="AM45" s="77"/>
+      <c r="AN45" s="77"/>
+      <c r="AO45" s="77"/>
     </row>
     <row r="46" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ46" s="100" t="s">
+      <c r="AJ46" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="AK46" s="103" t="s">
+      <c r="AK46" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="AL46" s="101" t="s">
+      <c r="AL46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AM46" s="101"/>
-      <c r="AN46" s="102" t="s">
+      <c r="AM46" s="74"/>
+      <c r="AN46" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="AO46" s="102"/>
+      <c r="AO46" s="75"/>
     </row>
     <row r="47" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ47" s="100"/>
-      <c r="AK47" s="103"/>
+      <c r="AJ47" s="73"/>
+      <c r="AK47" s="76"/>
       <c r="AL47" s="51" t="s">
         <v>3</v>
       </c>
@@ -5262,8 +5262,8 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ48" s="100"/>
-      <c r="AK48" s="103"/>
+      <c r="AJ48" s="73"/>
+      <c r="AK48" s="76"/>
       <c r="AL48" s="19" t="s">
         <v>61</v>
       </c>
@@ -5366,34 +5366,34 @@
       <c r="AO53" s="54"/>
     </row>
     <row r="54" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ54" s="104" t="s">
+      <c r="AJ54" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="AK54" s="104"/>
-      <c r="AL54" s="104"/>
-      <c r="AM54" s="104"/>
-      <c r="AN54" s="104"/>
-      <c r="AO54" s="104"/>
+      <c r="AK54" s="77"/>
+      <c r="AL54" s="77"/>
+      <c r="AM54" s="77"/>
+      <c r="AN54" s="77"/>
+      <c r="AO54" s="77"/>
     </row>
     <row r="55" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ55" s="100" t="s">
+      <c r="AJ55" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="AK55" s="103" t="s">
+      <c r="AK55" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="AL55" s="101" t="s">
+      <c r="AL55" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AM55" s="101"/>
-      <c r="AN55" s="102" t="s">
+      <c r="AM55" s="74"/>
+      <c r="AN55" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="AO55" s="102"/>
+      <c r="AO55" s="75"/>
     </row>
     <row r="56" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ56" s="100"/>
-      <c r="AK56" s="103"/>
+      <c r="AJ56" s="73"/>
+      <c r="AK56" s="76"/>
       <c r="AL56" s="51" t="s">
         <v>3</v>
       </c>
@@ -5408,8 +5408,8 @@
       </c>
     </row>
     <row r="57" spans="36:41" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ57" s="100"/>
-      <c r="AK57" s="103"/>
+      <c r="AJ57" s="73"/>
+      <c r="AK57" s="76"/>
       <c r="AL57" s="19" t="s">
         <v>6</v>
       </c>
@@ -5918,6 +5918,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="AV73:AZ73"/>
+    <mergeCell ref="AV65:AZ65"/>
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="T4:Z4"/>
+    <mergeCell ref="D3:S3"/>
+    <mergeCell ref="T3:AI3"/>
+    <mergeCell ref="AA4:AI4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:AE2"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K4:S4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="O5:Q5"/>
     <mergeCell ref="AJ65:AN65"/>
     <mergeCell ref="AP65:AT65"/>
     <mergeCell ref="C5:C6"/>
@@ -5934,38 +5966,6 @@
     <mergeCell ref="AJ54:AO54"/>
     <mergeCell ref="D26:I26"/>
     <mergeCell ref="S5:S6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:AE2"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K4:S4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="AV73:AZ73"/>
-    <mergeCell ref="AV65:AZ65"/>
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="T4:Z4"/>
-    <mergeCell ref="D3:S3"/>
-    <mergeCell ref="T3:AI3"/>
-    <mergeCell ref="AA4:AI4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AE5:AG5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
+++ b/object_detection/TFLITE_PERF_TEST-COMPARISON.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACCELR_internship\github\tflite-perf-tests\object_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25CA348-85C1-4731-8A9C-AF4BF5D7FFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EEB5FE-1A12-4D51-A21E-1FFE8C95C0D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9924" yWindow="84" windowWidth="12480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="results_important" sheetId="2" r:id="rId1"/>
+    <sheet name="results_other" sheetId="3" r:id="rId2"/>
+    <sheet name="all_results(main results shown)" sheetId="1" r:id="rId3"/>
+    <sheet name="all_results " sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="84">
   <si>
     <t>TFLITE-COMPARISON</t>
   </si>
@@ -67,28 +71,7 @@
     <t>2. ssd_mobilenet_v3_large</t>
   </si>
   <si>
-    <t>3. ssd_mobilenet_v2_fpnlite_640 (I)</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>3. ssd_mobilenet_v2_fpnlite_640 (III)</t>
-  </si>
-  <si>
-    <t>4. ssd_mobilenet_v2_fpnlite_320 (I)</t>
-  </si>
-  <si>
-    <t>4. ssd_mobilenet_v2_fpnlite_320 (III)</t>
-  </si>
-  <si>
-    <t>5. ssd_mobilenet_v2 (II)  - other 2: not working</t>
-  </si>
-  <si>
-    <t>6. ssd_mobilenet_v1_fpn (I)</t>
-  </si>
-  <si>
-    <t>6. ssd_mobilenet_v1_fpn (III)</t>
   </si>
   <si>
     <t>7. ssd_mobilenet_v1_1</t>
@@ -103,12 +86,6 @@
     <t>11. localizer</t>
   </si>
   <si>
-    <t>Conclusions</t>
-  </si>
-  <si>
-    <t>no significant impact of GUI</t>
-  </si>
-  <si>
     <t>32 bit</t>
   </si>
   <si>
@@ -118,12 +95,6 @@
     <t>10. example (they given for CPP)</t>
   </si>
   <si>
-    <t>ssd_mobilenet_v1_default_model</t>
-  </si>
-  <si>
-    <t>coco_ssd_mobilenet_v1_1_model</t>
-  </si>
-  <si>
     <t>IOU=0.50:0.95</t>
   </si>
   <si>
@@ -131,12 +102,6 @@
   </si>
   <si>
     <t>IOU=0.75</t>
-  </si>
-  <si>
-    <t>*add Dynamic, Static, etc</t>
-  </si>
-  <si>
-    <t>* check tf models metric</t>
   </si>
   <si>
     <t>mAP</t>
@@ -169,55 +134,19 @@
     <t>x</t>
   </si>
   <si>
-    <t>UPDATE REPOSITORY</t>
-  </si>
-  <si>
-    <t>from official repositoy (saved model COCO-mAP) : 20.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">IOU=0.50:0.95 </t>
   </si>
   <si>
     <t>32 bit Python NUM_THREADS=1 mAP</t>
   </si>
   <si>
-    <t>32 bit Python NUM_THREADS=1 FPS</t>
-  </si>
-  <si>
     <t>0 (NA)</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>PROBLEM:</t>
-  </si>
-  <si>
-    <t>1. fps values were collected based on 0.6 threshold in PYTHON</t>
-  </si>
-  <si>
-    <t>2. fps values were collected using sample images of 5</t>
-  </si>
-  <si>
-    <t>mAP BASELINES</t>
-  </si>
-  <si>
-    <t>create FIGURE</t>
-  </si>
-  <si>
-    <t>mAP (IOU=0.50:0.95)</t>
-  </si>
-  <si>
-    <t>Python</t>
   </si>
   <si>
     <t xml:space="preserve">3. ssd_mobilenet_v2 (II- STATIC) </t>
   </si>
   <si>
     <t>4. ssd_mobilenet_v1_1</t>
-  </si>
-  <si>
-    <t>32 bit-baselines (num_threads=1)</t>
   </si>
   <si>
     <t>baseline</t>
@@ -235,9 +164,6 @@
     <t>64bit Python</t>
   </si>
   <si>
-    <t>FPS</t>
-  </si>
-  <si>
     <t>Experiment</t>
   </si>
   <si>
@@ -249,12 +175,177 @@
   <si>
     <t>FPS- with heat sink/fans- corrected fps</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Important Points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+* Most important rows and columns are only shown (others are hidden)
+* Results obtained with no fans/ heat sinks
+* FPS calculation was done using initial methods on both C++, Python</t>
+    </r>
+  </si>
+  <si>
+    <t>Important Points</t>
+  </si>
+  <si>
+    <t>* Results obtained with no fans/ heat sinks</t>
+  </si>
+  <si>
+    <t>* FPS calculation was done using initial methods on both C++, Python</t>
+  </si>
+  <si>
+    <t>* All experiments are shown</t>
+  </si>
+  <si>
+    <t>Other results obtained after all_Results</t>
+  </si>
+  <si>
+    <t>* Results obtained with fans/ heat sinks</t>
+  </si>
+  <si>
+    <t>* Results obtained withOUT fans/ heat sinks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* This contains most important results obtained with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>modified FPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on C++ and Python </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">with Cooling fans and heat sinks </t>
+    </r>
+  </si>
+  <si>
+    <t>IMPORTANT RESULTS</t>
+  </si>
+  <si>
+    <t>* obtained mAP values for important experiments can be found in "all_results"/ "results_important"</t>
+  </si>
+  <si>
+    <t>RESULTS BREAKDOWN FOR DEMONSTRATION</t>
+  </si>
+  <si>
+    <t>* FPS results and results types of all models are shown</t>
+  </si>
+  <si>
+    <t>* Only FPS results with all models are shown</t>
+  </si>
+  <si>
+    <t>YN</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>9. Mobilenet v2- face detector</t>
+  </si>
+  <si>
+    <t>* NUM_THEADS=4</t>
+  </si>
+  <si>
+    <t>* FPS calculated using 20- 40 sec interval from the beginning</t>
+  </si>
+  <si>
+    <t>32 bit C++</t>
+  </si>
+  <si>
+    <t>32 bit Python</t>
+  </si>
+  <si>
+    <t>64 bit C++</t>
+  </si>
+  <si>
+    <t>64 bit Python</t>
+  </si>
+  <si>
+    <r>
+      <t>TFLITE-COMPARISON-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> FPS</t>
+    </r>
+  </si>
+  <si>
+    <t>32bit C++ : detected/ bbox correct</t>
+  </si>
+  <si>
+    <t>32bit Python :detected/ bbox correct</t>
+  </si>
+  <si>
+    <t>64bit C++ :detected/ bbox correct</t>
+  </si>
+  <si>
+    <t>64bit Python : detected/ bbox correct</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>32 bit C++ : FPS</t>
+  </si>
+  <si>
+    <t>32 bit Python : FPS</t>
+  </si>
+  <si>
+    <t>64 bit C++ : FPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 bit Python : FPS </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -326,6 +417,47 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -440,7 +572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -516,19 +648,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -539,38 +658,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -603,11 +704,8 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,7 +714,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,48 +721,33 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -699,13 +781,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,83 +824,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,6 +866,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -915,7 +1036,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AK$66</c:f>
+              <c:f>results_important!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -936,7 +1057,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AJ$67:$AJ$71</c:f>
+              <c:f>results_important!$A$8:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -959,7 +1080,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AK$67:$AK$71</c:f>
+              <c:f>results_important!$B$8:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -983,7 +1104,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-77BB-4CBA-8E49-0CD46A3F3954}"/>
+              <c16:uniqueId val="{00000000-4608-40D4-B38F-FAFD6615A164}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -992,7 +1113,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AL$66</c:f>
+              <c:f>results_important!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1013,7 +1134,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AJ$67:$AJ$71</c:f>
+              <c:f>results_important!$A$8:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1036,7 +1157,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$67:$AL$71</c:f>
+              <c:f>results_important!$C$8:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1060,7 +1181,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-77BB-4CBA-8E49-0CD46A3F3954}"/>
+              <c16:uniqueId val="{00000001-4608-40D4-B38F-FAFD6615A164}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1069,7 +1190,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AM$66</c:f>
+              <c:f>results_important!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1090,7 +1211,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AJ$67:$AJ$71</c:f>
+              <c:f>results_important!$A$8:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1113,7 +1234,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$67:$AM$71</c:f>
+              <c:f>results_important!$D$8:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1137,7 +1258,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-77BB-4CBA-8E49-0CD46A3F3954}"/>
+              <c16:uniqueId val="{00000002-4608-40D4-B38F-FAFD6615A164}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1146,7 +1267,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AN$66</c:f>
+              <c:f>results_important!$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1167,7 +1288,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AJ$67:$AJ$71</c:f>
+              <c:f>results_important!$A$8:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1190,7 +1311,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$67:$AN$71</c:f>
+              <c:f>results_important!$E$8:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1214,7 +1335,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-77BB-4CBA-8E49-0CD46A3F3954}"/>
+              <c16:uniqueId val="{00000003-4608-40D4-B38F-FAFD6615A164}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1506,7 +1627,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AQ$66</c:f>
+              <c:f>results_important!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1527,7 +1648,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AP$67:$AP$71</c:f>
+              <c:f>results_important!$G$8:$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1550,7 +1671,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AQ$67:$AQ$71</c:f>
+              <c:f>results_important!$H$8:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1574,7 +1695,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-09F5-44AC-9327-AC46A6D54B23}"/>
+              <c16:uniqueId val="{00000000-7BFC-4675-B7FC-EA2354A09C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1583,7 +1704,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AR$66</c:f>
+              <c:f>results_important!$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1604,7 +1725,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AP$67:$AP$71</c:f>
+              <c:f>results_important!$G$8:$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1627,7 +1748,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AR$67:$AR$71</c:f>
+              <c:f>results_important!$I$8:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1651,7 +1772,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-09F5-44AC-9327-AC46A6D54B23}"/>
+              <c16:uniqueId val="{00000001-7BFC-4675-B7FC-EA2354A09C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1660,7 +1781,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AS$66</c:f>
+              <c:f>results_important!$J$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1681,7 +1802,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AP$67:$AP$71</c:f>
+              <c:f>results_important!$G$8:$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1704,7 +1825,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AS$67:$AS$71</c:f>
+              <c:f>results_important!$J$8:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1728,7 +1849,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-09F5-44AC-9327-AC46A6D54B23}"/>
+              <c16:uniqueId val="{00000002-7BFC-4675-B7FC-EA2354A09C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1737,7 +1858,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AT$66</c:f>
+              <c:f>results_important!$K$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1758,7 +1879,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AP$67:$AP$71</c:f>
+              <c:f>results_important!$G$8:$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1781,7 +1902,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AT$67:$AT$71</c:f>
+              <c:f>results_important!$K$8:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1805,7 +1926,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-09F5-44AC-9327-AC46A6D54B23}"/>
+              <c16:uniqueId val="{00000003-7BFC-4675-B7FC-EA2354A09C7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3101,27 +3222,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>678492</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>68893</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1080383</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167327</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC4E981-7A22-4EF6-BB36-475A0AF40790}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F290D9-6482-4E45-BB62-0316BBC0C225}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3137,27 +3260,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>272233</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>77661</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11496</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447475</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>159707</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA728671-C21E-4701-9C90-EFD18F91F8C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E09333-F2F7-430B-917C-FCB2E475C6D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3371,2604 +3496,5348 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E186B296-16F6-4F18-86EC-8903EE56ADE4}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="G6" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
+    </row>
+    <row r="7" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="48">
+        <v>8.2446999999999999</v>
+      </c>
+      <c r="C8" s="48">
+        <v>2.9859</v>
+      </c>
+      <c r="D8" s="49">
+        <v>4.0262000000000002</v>
+      </c>
+      <c r="E8" s="48">
+        <v>5.4377000000000004</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="48">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I8" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="J8" s="47">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K8" s="48">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="48">
+        <v>12.648999999999999</v>
+      </c>
+      <c r="E9" s="48">
+        <v>16.293800000000001</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="47">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K9" s="47">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="48">
+        <v>8.7626000000000008</v>
+      </c>
+      <c r="C10" s="48">
+        <v>3.9180000000000001</v>
+      </c>
+      <c r="D10" s="48">
+        <v>12.8385</v>
+      </c>
+      <c r="E10" s="48">
+        <v>16.600899999999999</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="48">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I10" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="J10" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K10" s="48">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="48">
+        <v>17.152999999999999</v>
+      </c>
+      <c r="E11" s="48">
+        <v>22.811699999999998</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="48">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="K11" s="48">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="48">
+        <v>18.475000000000001</v>
+      </c>
+      <c r="C12" s="48">
+        <v>8.1403999999999996</v>
+      </c>
+      <c r="D12" s="48">
+        <v>17.059699999999999</v>
+      </c>
+      <c r="E12" s="48">
+        <v>22.2758</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="48">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I12" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="J12" s="48">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="K12" s="48">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE5ED29-67B7-429B-BD1C-3444A299778E}">
+  <dimension ref="A2:E29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+    </row>
+    <row r="6" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="48">
+        <v>8.2819000000000003</v>
+      </c>
+      <c r="C7" s="48">
+        <v>3.0143</v>
+      </c>
+      <c r="D7" s="49">
+        <v>4.0194000000000001</v>
+      </c>
+      <c r="E7" s="48">
+        <v>5.4329999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="48">
+        <v>12.633900000000001</v>
+      </c>
+      <c r="E8" s="48">
+        <v>16.199200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="48">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="C9" s="48">
+        <v>3.9462000000000002</v>
+      </c>
+      <c r="D9" s="48">
+        <v>12.818300000000001</v>
+      </c>
+      <c r="E9" s="48">
+        <v>16.453499999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="48">
+        <v>16.847300000000001</v>
+      </c>
+      <c r="E10" s="48">
+        <v>21.959299999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="48">
+        <v>18.676300000000001</v>
+      </c>
+      <c r="C11" s="48">
+        <v>8.2623999999999995</v>
+      </c>
+      <c r="D11" s="48">
+        <v>17.114899999999999</v>
+      </c>
+      <c r="E11" s="48">
+        <v>22.3522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+    </row>
+    <row r="20" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="48">
+        <v>8.0786999999999995</v>
+      </c>
+      <c r="C21" s="48">
+        <v>3.0070999999999999</v>
+      </c>
+      <c r="D21" s="49">
+        <v>3.9247000000000001</v>
+      </c>
+      <c r="E21" s="48">
+        <v>5.3813000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="48">
+        <v>12.122400000000001</v>
+      </c>
+      <c r="E22" s="48">
+        <v>15.8794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="48">
+        <v>8.9234000000000009</v>
+      </c>
+      <c r="C23" s="48">
+        <v>4.0617999999999999</v>
+      </c>
+      <c r="D23" s="48">
+        <v>12.327500000000001</v>
+      </c>
+      <c r="E23" s="48">
+        <v>15.2136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="48">
+        <v>15.1486</v>
+      </c>
+      <c r="E24" s="48">
+        <v>19.4072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="48">
+        <v>8.9234000000000009</v>
+      </c>
+      <c r="C25" s="48">
+        <v>8.7248999999999999</v>
+      </c>
+      <c r="D25" s="48">
+        <v>14.2964</v>
+      </c>
+      <c r="E25" s="48">
+        <v>19.202500000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A19:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ79"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ58" zoomScale="59" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="AS76" sqref="AS76"/>
+    <sheetView zoomScale="85" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.44140625" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="14" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="20" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="13.88671875" customWidth="1"/>
-    <col min="23" max="24" width="13.88671875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="12.77734375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="14.44140625" customWidth="1"/>
-    <col min="29" max="30" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="32" max="35" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="28.6640625" customWidth="1"/>
-    <col min="37" max="37" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="13" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="19" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="13.88671875" customWidth="1"/>
+    <col min="22" max="23" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="12.77734375" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="14.44140625" customWidth="1"/>
+    <col min="28" max="29" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="31" max="34" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="28.6640625" customWidth="1"/>
+    <col min="36" max="36" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:36" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-    </row>
-    <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+    </row>
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="45"/>
-    </row>
-    <row r="3" spans="1:37" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="106"/>
-    </row>
-    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="88" t="s">
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40"/>
+    </row>
+    <row r="3" spans="1:36" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="97"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="92"/>
+    </row>
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="96" t="s">
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="88" t="s">
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="96" t="s">
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-    </row>
-    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="84" t="s">
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
+      <c r="B5" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="D5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="80" t="s">
+      <c r="E5" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="80" t="s">
+      <c r="I5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="J5" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="82" t="s">
+      <c r="K5" s="83"/>
+      <c r="L5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="81"/>
-      <c r="O5" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="80" t="s">
+      <c r="M5" s="83"/>
+      <c r="N5" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="80" t="s">
+      <c r="R5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="84" t="s">
+      <c r="S5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="86" t="s">
+      <c r="T5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="80" t="s">
+      <c r="U5" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="80" t="s">
+      <c r="Y5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="AA5" s="82" t="s">
+      <c r="Z5" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="82" t="s">
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="80" t="s">
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="80" t="s">
+      <c r="AH5" s="82" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="21" t="s">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="83"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="K6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="L6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="M6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="21" t="s">
+      <c r="N6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="22" t="s">
+      <c r="AA6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="21" t="s">
+      <c r="AB6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AD6" s="22" t="s">
+      <c r="AC6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH6" s="81"/>
-      <c r="AI6" s="81"/>
-    </row>
-    <row r="7" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
+    </row>
+    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="35">
         <v>0.17799999999999999</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="7">
+        <v>8.5198999999999998</v>
+      </c>
       <c r="D7" s="7">
-        <v>8.5198999999999998</v>
-      </c>
-      <c r="E7" s="7">
         <v>8.9611999999999998</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="J7" s="7">
+        <v>8.7563999999999993</v>
+      </c>
       <c r="K7" s="7">
-        <v>8.7563999999999993</v>
+        <v>8.9234000000000009</v>
       </c>
       <c r="L7" s="7">
-        <v>8.9234000000000009</v>
+        <v>9.1134000000000004</v>
       </c>
       <c r="M7" s="7">
-        <v>9.1134000000000004</v>
+        <v>8.9818999999999996</v>
       </c>
       <c r="N7" s="7">
-        <v>8.9818999999999996</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="O7" s="7">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.188</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="7">
+        <v>16.304400000000001</v>
+      </c>
+      <c r="T7" s="7">
+        <v>16.486599999999999</v>
+      </c>
+      <c r="U7" s="34">
+        <v>0</v>
+      </c>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>19.936</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>19.9146</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>18.751799999999999</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>18.9176</v>
+      </c>
+      <c r="AD7" s="7">
         <v>0.17799999999999999</v>
       </c>
-      <c r="P7" s="7">
+      <c r="AE7" s="7">
         <v>0.25900000000000001</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="AF7" s="7">
         <v>0.188</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="7">
-        <v>16.304400000000001</v>
-      </c>
-      <c r="U7" s="7">
-        <v>16.486599999999999</v>
-      </c>
-      <c r="V7" s="38">
-        <v>0</v>
-      </c>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>19.936</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>19.9146</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>18.751799999999999</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>18.9176</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>0.188</v>
+      <c r="AG7" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="AH7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AI7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="35">
         <v>0.24</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="7">
+        <v>3.6566000000000001</v>
+      </c>
       <c r="D8" s="7">
-        <v>3.6566000000000001</v>
-      </c>
-      <c r="E8" s="7">
         <v>4.0309999999999997</v>
       </c>
-      <c r="F8" s="28">
+      <c r="E8" s="24">
         <v>0</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="J8" s="7">
+        <v>3.8466999999999998</v>
+      </c>
       <c r="K8" s="7">
-        <v>3.8466999999999998</v>
+        <v>4.0617999999999999</v>
       </c>
       <c r="L8" s="7">
-        <v>4.0617999999999999</v>
+        <v>3.8940999999999999</v>
       </c>
       <c r="M8" s="7">
-        <v>3.8940999999999999</v>
+        <v>3.9441000000000002</v>
       </c>
       <c r="N8" s="7">
-        <v>3.9441000000000002</v>
+        <v>0.24</v>
       </c>
       <c r="O8" s="7">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="7">
+        <v>6.891</v>
+      </c>
+      <c r="T8" s="7">
+        <v>7.4348000000000001</v>
+      </c>
+      <c r="U8" s="24">
+        <v>0</v>
+      </c>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>8.7937999999999992</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>8.7248999999999999</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>8.3080999999999996</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>7.8689999999999998</v>
+      </c>
+      <c r="AD8" s="7">
         <v>0.24</v>
       </c>
-      <c r="P8" s="7">
+      <c r="AE8" s="7">
         <v>0.35099999999999998</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="AF8" s="7">
         <v>0.25600000000000001</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="7">
-        <v>6.891</v>
-      </c>
-      <c r="U8" s="7">
-        <v>7.4348000000000001</v>
-      </c>
-      <c r="V8" s="28">
-        <v>0</v>
-      </c>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>8.7937999999999992</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>8.7248999999999999</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>8.3080999999999996</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>7.8689999999999998</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>0.24</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="AG8" s="7">
-        <v>0.25600000000000001</v>
+      <c r="AG8" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="AH8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AI8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="40"/>
+    </row>
+    <row r="9" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.63749999999999996</v>
       </c>
       <c r="K9" s="6">
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="L9" s="6">
         <v>0.66039999999999999</v>
       </c>
+      <c r="L9" s="7">
+        <v>0.64849999999999997</v>
+      </c>
       <c r="M9" s="7">
-        <v>0.64849999999999997</v>
-      </c>
-      <c r="N9" s="7">
         <v>0.64410000000000001</v>
       </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="R9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
+      <c r="X9" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="Y9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>1.1909000000000001</v>
       </c>
       <c r="AA9" s="6">
-        <v>1.1909000000000001</v>
-      </c>
-      <c r="AB9" s="6">
         <v>1.1753</v>
       </c>
+      <c r="AB9" s="7">
+        <v>1.1060000000000001</v>
+      </c>
       <c r="AC9" s="7">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="AD9" s="7">
         <v>1.1094999999999999</v>
       </c>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28">
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AG9" s="28">
+      <c r="AF9" s="24">
         <v>0.155</v>
       </c>
+      <c r="AG9" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="AH9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AI9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="40"/>
+    </row>
+    <row r="10" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="I10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="8">
         <v>0.70589999999999997</v>
       </c>
-      <c r="L10" s="6">
+      <c r="K10" s="6">
         <v>0.71789999999999998</v>
       </c>
+      <c r="L10" s="7">
+        <v>0.71660000000000001</v>
+      </c>
       <c r="M10" s="7">
-        <v>0.71660000000000001</v>
-      </c>
-      <c r="N10" s="7">
         <v>0.73299999999999998</v>
       </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="R10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6" t="s">
-        <v>16</v>
+      <c r="Y10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>1.4504999999999999</v>
       </c>
       <c r="AA10" s="6">
-        <v>1.4504999999999999</v>
-      </c>
-      <c r="AB10" s="6">
         <v>1.3288</v>
       </c>
+      <c r="AB10" s="7">
+        <v>1.3798999999999999</v>
+      </c>
       <c r="AC10" s="7">
-        <v>1.3798999999999999</v>
-      </c>
-      <c r="AD10" s="7">
         <v>1.294</v>
       </c>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28">
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24">
         <v>0.17599999999999999</v>
       </c>
-      <c r="AG10" s="28">
+      <c r="AF10" s="24">
         <v>0.151</v>
       </c>
+      <c r="AG10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="AH10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AI10" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="40"/>
+    </row>
+    <row r="11" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.9638</v>
       </c>
       <c r="K11" s="6">
-        <v>1.9638</v>
-      </c>
-      <c r="L11" s="6">
         <v>1.9446000000000001</v>
       </c>
+      <c r="L11" s="7">
+        <v>1.8580000000000001</v>
+      </c>
       <c r="M11" s="7">
-        <v>1.8580000000000001</v>
-      </c>
-      <c r="N11" s="7">
         <v>1.8012999999999999</v>
       </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="R11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="Y11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>4.8159999999999998</v>
       </c>
       <c r="AA11" s="6">
-        <v>4.8159999999999998</v>
-      </c>
-      <c r="AB11" s="6">
         <v>4.3872</v>
       </c>
+      <c r="AB11" s="7">
+        <v>4.4539999999999997</v>
+      </c>
       <c r="AC11" s="7">
-        <v>4.4539999999999997</v>
-      </c>
-      <c r="AD11" s="7">
         <v>4.1999000000000004</v>
       </c>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28">
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AG11" s="28">
+      <c r="AF11" s="24">
         <v>0.11600000000000001</v>
       </c>
+      <c r="AG11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="AH11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AI11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="40"/>
+    </row>
+    <row r="12" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="D12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+        <v>15</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="I12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2.2877000000000001</v>
       </c>
       <c r="K12" s="6">
-        <v>2.2877000000000001</v>
-      </c>
-      <c r="L12" s="6">
         <v>2.238</v>
       </c>
+      <c r="L12" s="7">
+        <v>2.3487</v>
+      </c>
       <c r="M12" s="7">
-        <v>2.3487</v>
-      </c>
-      <c r="N12" s="7">
         <v>2.3607</v>
       </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="R12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>12</v>
+      <c r="S12" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
+      <c r="X12" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="Y12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA12" s="9">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="9">
         <v>5.6670999999999996</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AA12" s="6">
         <v>5.1318999999999999</v>
       </c>
+      <c r="AB12" s="7">
+        <v>5.3026999999999997</v>
+      </c>
       <c r="AC12" s="7">
-        <v>5.3026999999999997</v>
-      </c>
-      <c r="AD12" s="7">
         <v>4.9962999999999997</v>
       </c>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28">
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AG12" s="28">
+      <c r="AF12" s="24">
         <v>0.108</v>
       </c>
+      <c r="AG12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="AH12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AI12" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-    </row>
-    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="41">
+    </row>
+    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="36">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="12">
+        <v>11.8931</v>
+      </c>
       <c r="D13" s="12">
-        <v>11.8931</v>
-      </c>
-      <c r="E13" s="12">
         <v>12.122400000000001</v>
       </c>
-      <c r="F13" s="23">
+      <c r="E13" s="20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G13" s="23">
+      <c r="F13" s="20">
         <v>0.20399999999999999</v>
       </c>
-      <c r="H13" s="23">
+      <c r="G13" s="20">
         <v>0.13900000000000001</v>
       </c>
+      <c r="H13" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>12</v>
+      <c r="J13" s="12">
+        <v>12.7692</v>
       </c>
       <c r="K13" s="12">
-        <v>12.7692</v>
+        <v>12.327500000000001</v>
       </c>
       <c r="L13" s="12">
-        <v>12.327500000000001</v>
+        <v>12.488799999999999</v>
       </c>
       <c r="M13" s="12">
-        <v>12.488799999999999</v>
+        <v>11.545500000000001</v>
       </c>
       <c r="N13" s="12">
-        <v>11.545500000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O13" s="12">
-        <v>0.14000000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="P13" s="12">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="Q13" s="12">
         <v>0.13900000000000001</v>
       </c>
+      <c r="Q13" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="R13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="S13" s="11" t="s">
-        <v>12</v>
+      <c r="S13" s="12">
+        <v>14.611000000000001</v>
       </c>
       <c r="T13" s="12">
-        <v>14.611000000000001</v>
+        <v>15.1486</v>
       </c>
       <c r="U13" s="12">
-        <v>15.1486</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="V13" s="12">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>15.7567</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>14.2964</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>14.9931</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>13.837400000000001</v>
+      </c>
+      <c r="AD13" s="12">
         <v>0.14199999999999999</v>
       </c>
-      <c r="W13" s="12">
+      <c r="AE13" s="12">
         <v>0.20599999999999999</v>
       </c>
-      <c r="X13" s="12">
+      <c r="AF13" s="12">
         <v>0.14299999999999999</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA13" s="12">
-        <v>15.7567</v>
-      </c>
-      <c r="AB13" s="12">
-        <v>14.2964</v>
-      </c>
-      <c r="AC13" s="12">
-        <v>14.9931</v>
-      </c>
-      <c r="AD13" s="12">
-        <v>13.837400000000001</v>
-      </c>
-      <c r="AE13" s="12">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="AF13" s="12">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="AG13" s="12">
-        <v>0.14299999999999999</v>
+      <c r="AG13" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="AH13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AI13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="40"/>
+    </row>
+    <row r="14" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.26850000000000002</v>
       </c>
       <c r="K14" s="6">
-        <v>0.26850000000000002</v>
-      </c>
-      <c r="L14" s="6">
         <v>0.25269999999999998</v>
       </c>
+      <c r="L14" s="7">
+        <v>0.26429999999999998</v>
+      </c>
       <c r="M14" s="7">
-        <v>0.26429999999999998</v>
-      </c>
-      <c r="N14" s="7">
         <v>0.25650000000000001</v>
       </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="R14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
+      <c r="X14" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="Y14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>0.2974</v>
       </c>
       <c r="AA14" s="6">
-        <v>0.2974</v>
-      </c>
-      <c r="AB14" s="6">
         <v>0.27250000000000002</v>
       </c>
+      <c r="AB14" s="7">
+        <v>0.29680000000000001</v>
+      </c>
       <c r="AC14" s="7">
-        <v>0.29680000000000001</v>
-      </c>
-      <c r="AD14" s="7">
         <v>0.27600000000000002</v>
       </c>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28">
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AG14" s="28">
+      <c r="AF14" s="24">
         <v>0.13200000000000001</v>
       </c>
+      <c r="AG14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="AH14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AI14" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="40"/>
+    </row>
+    <row r="15" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="10">
+        <v>15</v>
+      </c>
+      <c r="J15" s="10">
         <v>0.11020000000000001</v>
       </c>
-      <c r="L15" s="6">
+      <c r="K15" s="6">
         <v>9.8100000000000007E-2</v>
       </c>
+      <c r="L15" s="7">
+        <v>0.1076</v>
+      </c>
       <c r="M15" s="7">
-        <v>0.1076</v>
-      </c>
-      <c r="N15" s="7">
         <v>0.1013</v>
       </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="R15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
+      <c r="X15" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="Y15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>0.1103</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>0.1087</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>0.1164</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>0.1111</v>
+      </c>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AF15" s="24">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AG15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>0.1103</v>
-      </c>
-      <c r="AB15" s="6">
-        <v>0.1087</v>
-      </c>
-      <c r="AC15" s="7">
-        <v>0.1164</v>
-      </c>
-      <c r="AD15" s="7">
-        <v>0.1111</v>
-      </c>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="AG15" s="28">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="AH15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI15" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="39">
+      <c r="B16" s="35">
         <v>0.14799999999999999</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="13">
+      <c r="C16" s="13">
         <v>15.230700000000001</v>
       </c>
-      <c r="E16" s="12">
+      <c r="D16" s="12">
         <v>15.8794</v>
       </c>
-      <c r="F16" s="23">
+      <c r="E16" s="20">
         <v>0.14799999999999999</v>
       </c>
-      <c r="G16" s="23">
+      <c r="F16" s="20">
         <v>0.23300000000000001</v>
       </c>
-      <c r="H16" s="23">
+      <c r="G16" s="20">
         <v>0.154</v>
       </c>
+      <c r="H16" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="14">
+      <c r="J16" s="14">
         <v>15.3744</v>
       </c>
+      <c r="K16" s="13">
+        <v>15.2136</v>
+      </c>
       <c r="L16" s="13">
-        <v>15.2136</v>
+        <v>15.010300000000001</v>
       </c>
       <c r="M16" s="13">
-        <v>15.010300000000001</v>
+        <v>14.070600000000001</v>
       </c>
       <c r="N16" s="13">
-        <v>14.070600000000001</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="O16" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0.154</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="12">
+        <v>18.652899999999999</v>
+      </c>
+      <c r="T16" s="12">
+        <v>19.4072</v>
+      </c>
+      <c r="U16" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="V16" s="12">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="W16" s="12">
+        <v>0.154</v>
+      </c>
+      <c r="X16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>19.525500000000001</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>19.202500000000001</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>17.069099999999999</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>18.8599</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>0.154</v>
+      </c>
+      <c r="AG16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH16" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="28">
+        <v>14.939500000000001</v>
+      </c>
+      <c r="D17" s="29">
+        <v>15.9551</v>
+      </c>
+      <c r="E17" s="30">
         <v>0.14799999999999999</v>
       </c>
-      <c r="P16" s="13">
+      <c r="F17" s="30">
         <v>0.23300000000000001</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="G17" s="30">
         <v>0.154</v>
       </c>
-      <c r="R16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="12">
-        <v>18.652899999999999</v>
-      </c>
-      <c r="U16" s="12">
-        <v>19.4072</v>
-      </c>
-      <c r="V16" s="12">
+      <c r="H17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="31">
+        <v>13.662800000000001</v>
+      </c>
+      <c r="K17" s="28">
+        <v>13.752000000000001</v>
+      </c>
+      <c r="L17" s="28">
+        <v>13.3429</v>
+      </c>
+      <c r="M17" s="28">
+        <v>13.536799999999999</v>
+      </c>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="32">
+        <v>18.9712</v>
+      </c>
+      <c r="T17" s="29">
+        <v>19.6126</v>
+      </c>
+      <c r="U17" s="29">
         <v>0.14699999999999999</v>
       </c>
-      <c r="W16" s="12">
+      <c r="V17" s="29">
         <v>0.23300000000000001</v>
       </c>
-      <c r="X16" s="12">
+      <c r="W17" s="29">
         <v>0.154</v>
       </c>
-      <c r="Y16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>19.525500000000001</v>
-      </c>
-      <c r="AB16" s="14">
-        <v>19.202500000000001</v>
-      </c>
-      <c r="AC16" s="12">
-        <v>17.069099999999999</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>18.8599</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>0.154</v>
-      </c>
-      <c r="AH16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI16" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17">
-        <v>0.111</v>
-      </c>
-      <c r="D17" s="32">
-        <v>14.939500000000001</v>
-      </c>
-      <c r="E17" s="33">
-        <v>15.9551</v>
-      </c>
-      <c r="F17" s="34">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="G17" s="34">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="H17" s="34">
-        <v>0.154</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="35">
-        <v>13.662800000000001</v>
-      </c>
-      <c r="L17" s="32">
-        <v>13.752000000000001</v>
-      </c>
-      <c r="M17" s="32">
-        <v>13.3429</v>
-      </c>
-      <c r="N17" s="32">
-        <v>13.536799999999999</v>
-      </c>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="36">
-        <v>18.9712</v>
-      </c>
-      <c r="U17" s="33">
-        <v>19.6126</v>
-      </c>
-      <c r="V17" s="33">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="W17" s="33">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="X17" s="33">
-        <v>0.154</v>
-      </c>
-      <c r="Y17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA17" s="32">
+      <c r="X17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="28">
         <v>18.937200000000001</v>
       </c>
+      <c r="AA17" s="28">
+        <v>19.0989</v>
+      </c>
       <c r="AB17" s="32">
-        <v>19.0989</v>
-      </c>
-      <c r="AC17" s="36">
         <v>17.856100000000001</v>
       </c>
-      <c r="AD17" s="32">
+      <c r="AC17" s="28">
         <v>17.753299999999999</v>
       </c>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37">
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AG17" s="37">
+      <c r="AF17" s="33">
         <v>0.11799999999999999</v>
       </c>
-      <c r="AH17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI17" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH17" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12.8</v>
+      </c>
       <c r="D18" s="7">
-        <v>12.8</v>
-      </c>
-      <c r="E18" s="7">
         <v>13.0855</v>
       </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>13</v>
+      <c r="J18" s="7">
+        <v>11.4129</v>
       </c>
       <c r="K18" s="7">
-        <v>11.4129</v>
+        <v>13.067500000000001</v>
       </c>
       <c r="L18" s="7">
-        <v>13.067500000000001</v>
+        <v>12.104699999999999</v>
       </c>
       <c r="M18" s="7">
-        <v>12.104699999999999</v>
-      </c>
-      <c r="N18" s="7">
         <v>10.985099999999999</v>
       </c>
+      <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
+      <c r="Q18" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="R18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S18" s="6" t="s">
-        <v>13</v>
+      <c r="S18" s="7">
+        <v>16.796800000000001</v>
       </c>
       <c r="T18" s="7">
-        <v>16.796800000000001</v>
-      </c>
-      <c r="U18" s="7">
         <v>16.9024</v>
       </c>
+      <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
+      <c r="X18" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="Y18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Z18" s="6" t="s">
+      <c r="Z18" s="7">
+        <v>15.630100000000001</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>14.213900000000001</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>15.605600000000001</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>14.2798</v>
+      </c>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG18" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="AA18" s="7">
-        <v>15.630100000000001</v>
-      </c>
-      <c r="AB18" s="7">
-        <v>14.213900000000001</v>
-      </c>
-      <c r="AC18" s="7">
-        <v>15.605600000000001</v>
-      </c>
-      <c r="AD18" s="7">
-        <v>14.2798</v>
-      </c>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG18" s="28" t="s">
-        <v>16</v>
       </c>
       <c r="AH18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AI18" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>48</v>
+        <v>22</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7">
+        <v>14.7342</v>
       </c>
       <c r="D19" s="7">
-        <v>14.7342</v>
-      </c>
-      <c r="E19" s="7">
         <v>15.1958</v>
       </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>12</v>
+      <c r="J19" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="Q19" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="R19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="S19" s="7">
+        <v>18.772400000000001</v>
       </c>
       <c r="T19" s="7">
-        <v>18.772400000000001</v>
-      </c>
-      <c r="U19" s="7">
         <v>19.378299999999999</v>
       </c>
+      <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="Y19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
+      <c r="Z19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="AH19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI19" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="7">
+        <v>31.8306</v>
       </c>
       <c r="D20" s="7">
-        <v>31.8306</v>
-      </c>
-      <c r="E20" s="7">
         <v>32.3917</v>
       </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="J20" s="7">
+        <v>34.744</v>
+      </c>
       <c r="K20" s="7">
-        <v>34.744</v>
-      </c>
-      <c r="L20" s="7">
         <v>37.397399999999998</v>
       </c>
+      <c r="L20" s="6">
+        <v>28.7925</v>
+      </c>
       <c r="M20" s="6">
-        <v>28.7925</v>
-      </c>
-      <c r="N20" s="6">
         <v>28.678000000000001</v>
       </c>
+      <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="Q20" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="R20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S20" s="6" t="s">
-        <v>12</v>
+      <c r="S20" s="7">
+        <v>36.867600000000003</v>
       </c>
       <c r="T20" s="7">
-        <v>36.867600000000003</v>
-      </c>
-      <c r="U20" s="7">
         <v>38.462299999999999</v>
       </c>
+      <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
+      <c r="X20" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="Y20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z20" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="Z20" s="7">
+        <v>47.109900000000003</v>
+      </c>
       <c r="AA20" s="7">
-        <v>47.109900000000003</v>
-      </c>
-      <c r="AB20" s="7">
         <v>35.758699999999997</v>
       </c>
-      <c r="AC20" s="15">
+      <c r="AB20" s="15">
         <v>53.032899999999998</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AC20" s="6">
         <v>40.878900000000002</v>
       </c>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="30">
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="26">
         <v>1E-3</v>
       </c>
-      <c r="AG20" s="30">
+      <c r="AF20" s="26">
         <v>1E-3</v>
       </c>
+      <c r="AG20" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="AH20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AI20" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-      <c r="U21" s="1"/>
+    </row>
+    <row r="21" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B21" s="38"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="23" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="23" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L26" s="47"/>
-    </row>
-    <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="39">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="I28">
-        <v>0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="39">
-        <v>0.24</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="I29">
-        <v>0.223</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-    </row>
-    <row r="31" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-    </row>
-    <row r="32" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+    </row>
+    <row r="24" spans="1:34" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+    </row>
+    <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+    </row>
+    <row r="28" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+    </row>
+    <row r="29" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+    </row>
+    <row r="30" spans="1:34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+    </row>
+    <row r="31" spans="1:34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+    </row>
+    <row r="32" spans="1:34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
     </row>
     <row r="33" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
     </row>
     <row r="34" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="L34" s="17" t="s">
-        <v>57</v>
-      </c>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
     </row>
     <row r="35" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
     </row>
     <row r="36" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
     </row>
     <row r="37" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="39">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="C37" s="46"/>
-      <c r="D37">
-        <v>0.111</v>
-      </c>
-      <c r="I37">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L37" s="17" t="s">
-        <v>58</v>
-      </c>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
     </row>
     <row r="38" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38">
-        <v>0.111</v>
-      </c>
-      <c r="E38">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="I38">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
     </row>
     <row r="39" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
     </row>
     <row r="40" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
     </row>
     <row r="41" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41">
-        <v>1E-3</v>
-      </c>
-      <c r="E41">
-        <v>1E-3</v>
-      </c>
-      <c r="I41">
-        <v>1E-3</v>
-      </c>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
     </row>
     <row r="42" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+    </row>
+    <row r="43" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+    </row>
+    <row r="44" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="AD44" s="56"/>
+      <c r="AE44" s="56"/>
+      <c r="AF44" s="56"/>
+      <c r="AG44" s="56"/>
+      <c r="AH44" s="56"/>
+      <c r="AI44" s="56"/>
+      <c r="AJ44" s="56"/>
+      <c r="AK44" s="56"/>
+      <c r="AL44" s="56"/>
+      <c r="AM44" s="56"/>
+      <c r="AN44" s="56"/>
+      <c r="AO44" s="56"/>
     </row>
     <row r="45" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ45" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK45" s="77"/>
-      <c r="AL45" s="77"/>
-      <c r="AM45" s="77"/>
-      <c r="AN45" s="77"/>
-      <c r="AO45" s="77"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="AD45" s="56"/>
+      <c r="AE45" s="56"/>
+      <c r="AF45" s="56"/>
+      <c r="AG45" s="56"/>
+      <c r="AH45" s="56"/>
+      <c r="AI45" s="56"/>
+      <c r="AJ45" s="56"/>
+      <c r="AK45" s="56"/>
+      <c r="AL45" s="56"/>
+      <c r="AM45" s="56"/>
+      <c r="AN45" s="56"/>
+      <c r="AO45" s="56"/>
     </row>
     <row r="46" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ46" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK46" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL46" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM46" s="74"/>
-      <c r="AN46" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO46" s="75"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="AD46" s="56"/>
+      <c r="AE46" s="56"/>
+      <c r="AF46" s="56"/>
+      <c r="AG46" s="56"/>
+      <c r="AH46" s="56"/>
+      <c r="AI46" s="61"/>
+      <c r="AJ46" s="62"/>
+      <c r="AK46" s="37"/>
+      <c r="AL46" s="37"/>
+      <c r="AM46" s="55"/>
+      <c r="AN46" s="55"/>
+      <c r="AO46" s="56"/>
     </row>
     <row r="47" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ47" s="73"/>
-      <c r="AK47" s="76"/>
-      <c r="AL47" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM47" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN47" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO47" s="52" t="s">
-        <v>62</v>
-      </c>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="AD47" s="56"/>
+      <c r="AE47" s="56"/>
+      <c r="AF47" s="56"/>
+      <c r="AG47" s="56"/>
+      <c r="AH47" s="56"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="62"/>
+      <c r="AK47" s="58"/>
+      <c r="AL47" s="58"/>
+      <c r="AM47" s="58"/>
+      <c r="AN47" s="58"/>
+      <c r="AO47" s="56"/>
     </row>
     <row r="48" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ48" s="73"/>
-      <c r="AK48" s="76"/>
-      <c r="AL48" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM48" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN48" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO48" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ49" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK49" s="39">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="AL49" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM49" s="7">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="AN49" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO49" s="7">
-        <v>0.17799999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ50" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK50" s="39">
-        <v>0.24</v>
-      </c>
-      <c r="AL50" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM50" s="7">
-        <v>0.24</v>
-      </c>
-      <c r="AN50" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO50" s="7">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="51" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ51" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK51" s="41">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AL51" s="23">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AM51" s="12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AN51" s="12">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="AO51" s="12">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ52" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK52" s="39">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AL52" s="23">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AM52" s="13">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AN52" s="12">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="AO52" s="13">
-        <v>0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ53" s="42"/>
-      <c r="AK53" s="46"/>
-      <c r="AL53" s="53"/>
-      <c r="AM53" s="54"/>
-      <c r="AN53" s="54"/>
-      <c r="AO53" s="54"/>
-    </row>
-    <row r="54" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ54" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK54" s="77"/>
-      <c r="AL54" s="77"/>
-      <c r="AM54" s="77"/>
-      <c r="AN54" s="77"/>
-      <c r="AO54" s="77"/>
-    </row>
-    <row r="55" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ55" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK55" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL55" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM55" s="74"/>
-      <c r="AN55" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO55" s="75"/>
-    </row>
-    <row r="56" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ56" s="73"/>
-      <c r="AK56" s="76"/>
-      <c r="AL56" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM56" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN56" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO56" s="52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="36:41" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ57" s="73"/>
-      <c r="AK57" s="76"/>
-      <c r="AL57" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM57" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN57" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO57" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK58" s="39"/>
-      <c r="AL58" s="7">
-        <v>8.9611999999999998</v>
-      </c>
-      <c r="AM58" s="7">
-        <v>8.9234000000000009</v>
-      </c>
-      <c r="AN58" s="7">
-        <v>16.486599999999999</v>
-      </c>
-      <c r="AO58" s="7">
-        <v>19.9146</v>
-      </c>
-    </row>
-    <row r="59" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ59" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK59" s="39"/>
-      <c r="AL59" s="7">
-        <v>4.0309999999999997</v>
-      </c>
-      <c r="AM59" s="7">
-        <v>4.0617999999999999</v>
-      </c>
-      <c r="AN59" s="7">
-        <v>7.4348000000000001</v>
-      </c>
-      <c r="AO59" s="7">
-        <v>8.7248999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ60" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK60" s="41"/>
-      <c r="AL60" s="12">
-        <v>12.122400000000001</v>
-      </c>
-      <c r="AM60" s="12">
-        <v>12.327500000000001</v>
-      </c>
-      <c r="AN60" s="12">
-        <v>15.1486</v>
-      </c>
-      <c r="AO60" s="12">
-        <v>14.2964</v>
-      </c>
-    </row>
-    <row r="61" spans="36:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ61" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK61" s="39"/>
-      <c r="AL61" s="12">
-        <v>15.8794</v>
-      </c>
-      <c r="AM61" s="13">
-        <v>15.2136</v>
-      </c>
-      <c r="AN61" s="12">
-        <v>19.4072</v>
-      </c>
-      <c r="AO61" s="14">
-        <v>19.202500000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="36:52" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ65" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK65" s="65"/>
-      <c r="AL65" s="65"/>
-      <c r="AM65" s="65"/>
-      <c r="AN65" s="66"/>
-      <c r="AP65" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ65" s="68"/>
-      <c r="AR65" s="68"/>
-      <c r="AS65" s="68"/>
-      <c r="AT65" s="69"/>
-      <c r="AV65" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW65" s="68"/>
-      <c r="AX65" s="68"/>
-      <c r="AY65" s="68"/>
-      <c r="AZ65" s="69"/>
-    </row>
-    <row r="66" spans="36:52" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ66" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK66" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL66" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM66" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN66" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP66" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ66" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR66" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS66" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT66" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV66" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW66" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX66" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY66" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ66" s="57" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ67" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK67" s="59">
-        <v>8.2446999999999999</v>
-      </c>
-      <c r="AL67" s="59">
-        <v>2.9859</v>
-      </c>
-      <c r="AM67" s="60">
-        <v>4.0262000000000002</v>
-      </c>
-      <c r="AN67" s="59">
-        <v>5.4377000000000004</v>
-      </c>
-      <c r="AO67" s="61"/>
-      <c r="AP67" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ67" s="59">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="AR67" s="59">
-        <v>0.24</v>
-      </c>
-      <c r="AS67" s="58">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AT67" s="59">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AV67" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW67" s="59">
-        <v>8.0786999999999995</v>
-      </c>
-      <c r="AX67" s="59">
-        <v>3.0070999999999999</v>
-      </c>
-      <c r="AY67" s="60">
-        <v>3.9247000000000001</v>
-      </c>
-      <c r="AZ67" s="59">
-        <v>5.3813000000000004</v>
-      </c>
-    </row>
-    <row r="68" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ68" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK68" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL68" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM68" s="59">
-        <v>12.648999999999999</v>
-      </c>
-      <c r="AN68" s="59">
-        <v>16.293800000000001</v>
-      </c>
-      <c r="AO68" s="61"/>
-      <c r="AP68" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ68" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR68" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS68" s="58">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AT68" s="58">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AV68" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW68" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX68" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY68" s="59">
-        <v>12.122400000000001</v>
-      </c>
-      <c r="AZ68" s="59">
-        <v>15.8794</v>
-      </c>
-    </row>
-    <row r="69" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ69" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK69" s="59">
-        <v>8.7626000000000008</v>
-      </c>
-      <c r="AL69" s="59">
-        <v>3.9180000000000001</v>
-      </c>
-      <c r="AM69" s="59">
-        <v>12.8385</v>
-      </c>
-      <c r="AN69" s="59">
-        <v>16.600899999999999</v>
-      </c>
-      <c r="AO69" s="61"/>
-      <c r="AP69" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ69" s="59">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="AR69" s="59">
-        <v>0.24</v>
-      </c>
-      <c r="AS69" s="59">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AT69" s="59">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AV69" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW69" s="59">
-        <v>8.9234000000000009</v>
-      </c>
-      <c r="AX69" s="59">
-        <v>4.0617999999999999</v>
-      </c>
-      <c r="AY69" s="59">
-        <v>12.327500000000001</v>
-      </c>
-      <c r="AZ69" s="59">
-        <v>15.2136</v>
-      </c>
-    </row>
-    <row r="70" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ70" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK70" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL70" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM70" s="59">
-        <v>17.152999999999999</v>
-      </c>
-      <c r="AN70" s="59">
-        <v>22.811699999999998</v>
-      </c>
-      <c r="AO70" s="61"/>
-      <c r="AP70" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ70" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR70" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS70" s="59">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="AT70" s="59">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="AV70" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW70" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX70" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY70" s="59">
-        <v>15.1486</v>
-      </c>
-      <c r="AZ70" s="59">
-        <v>19.4072</v>
-      </c>
-    </row>
-    <row r="71" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ71" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK71" s="59">
-        <v>18.475000000000001</v>
-      </c>
-      <c r="AL71" s="59">
-        <v>8.1403999999999996</v>
-      </c>
-      <c r="AM71" s="59">
-        <v>17.059699999999999</v>
-      </c>
-      <c r="AN71" s="59">
-        <v>22.2758</v>
-      </c>
-      <c r="AO71" s="61"/>
-      <c r="AP71" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ71" s="59">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="AR71" s="59">
-        <v>0.24</v>
-      </c>
-      <c r="AS71" s="59">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="AT71" s="59">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="AV71" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW71" s="59">
-        <v>8.9234000000000009</v>
-      </c>
-      <c r="AX71" s="59">
-        <v>8.7248999999999999</v>
-      </c>
-      <c r="AY71" s="59">
-        <v>14.2964</v>
-      </c>
-      <c r="AZ71" s="59">
-        <v>19.202500000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AV73" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW73" s="65"/>
-      <c r="AX73" s="65"/>
-      <c r="AY73" s="65"/>
-      <c r="AZ73" s="66"/>
-    </row>
-    <row r="74" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AV74" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW74" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX74" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY74" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ74" s="57" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AV75" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW75" s="59">
-        <v>8.2819000000000003</v>
-      </c>
-      <c r="AX75" s="59">
-        <v>3.0143</v>
-      </c>
-      <c r="AY75" s="60">
-        <v>4.0194000000000001</v>
-      </c>
-      <c r="AZ75" s="59">
-        <v>5.4329999999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AV76" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW76" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX76" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY76" s="59">
-        <v>12.633900000000001</v>
-      </c>
-      <c r="AZ76" s="59">
-        <v>16.199200000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AV77" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW77" s="59">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="AX77" s="59">
-        <v>3.9462000000000002</v>
-      </c>
-      <c r="AY77" s="59">
-        <v>12.818300000000001</v>
-      </c>
-      <c r="AZ77" s="59">
-        <v>16.453499999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AV78" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW78" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX78" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY78" s="59">
-        <v>16.847300000000001</v>
-      </c>
-      <c r="AZ78" s="59">
-        <v>21.959299999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="36:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AV79" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW79" s="59">
-        <v>18.676300000000001</v>
-      </c>
-      <c r="AX79" s="59">
-        <v>8.2623999999999995</v>
-      </c>
-      <c r="AY79" s="59">
-        <v>17.114899999999999</v>
-      </c>
-      <c r="AZ79" s="59">
-        <v>22.3522</v>
-      </c>
-    </row>
+      <c r="AD48" s="56"/>
+      <c r="AE48" s="56"/>
+      <c r="AF48" s="56"/>
+      <c r="AG48" s="56"/>
+      <c r="AH48" s="56"/>
+      <c r="AI48" s="61"/>
+      <c r="AJ48" s="62"/>
+      <c r="AK48" s="59"/>
+      <c r="AL48" s="59"/>
+      <c r="AM48" s="59"/>
+      <c r="AN48" s="59"/>
+      <c r="AO48" s="56"/>
+    </row>
+    <row r="49" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD49" s="56"/>
+      <c r="AE49" s="56"/>
+      <c r="AF49" s="56"/>
+      <c r="AG49" s="56"/>
+      <c r="AH49" s="56"/>
+      <c r="AI49" s="41"/>
+      <c r="AJ49" s="41"/>
+      <c r="AK49" s="42"/>
+      <c r="AL49" s="43"/>
+      <c r="AM49" s="55"/>
+      <c r="AN49" s="43"/>
+      <c r="AO49" s="56"/>
+    </row>
+    <row r="50" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD50" s="56"/>
+      <c r="AE50" s="56"/>
+      <c r="AF50" s="56"/>
+      <c r="AG50" s="56"/>
+      <c r="AH50" s="56"/>
+      <c r="AI50" s="41"/>
+      <c r="AJ50" s="41"/>
+      <c r="AK50" s="42"/>
+      <c r="AL50" s="43"/>
+      <c r="AM50" s="42"/>
+      <c r="AN50" s="43"/>
+      <c r="AO50" s="56"/>
+    </row>
+    <row r="51" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD51" s="56"/>
+      <c r="AE51" s="56"/>
+      <c r="AF51" s="56"/>
+      <c r="AG51" s="56"/>
+      <c r="AH51" s="56"/>
+      <c r="AI51" s="37"/>
+      <c r="AJ51" s="37"/>
+      <c r="AK51" s="42"/>
+      <c r="AL51" s="43"/>
+      <c r="AM51" s="43"/>
+      <c r="AN51" s="43"/>
+      <c r="AO51" s="56"/>
+    </row>
+    <row r="52" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD52" s="56"/>
+      <c r="AE52" s="56"/>
+      <c r="AF52" s="56"/>
+      <c r="AG52" s="56"/>
+      <c r="AH52" s="56"/>
+      <c r="AI52" s="37"/>
+      <c r="AJ52" s="41"/>
+      <c r="AK52" s="42"/>
+      <c r="AL52" s="43"/>
+      <c r="AM52" s="43"/>
+      <c r="AN52" s="43"/>
+      <c r="AO52" s="56"/>
+    </row>
+    <row r="53" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD53" s="56"/>
+      <c r="AE53" s="56"/>
+      <c r="AF53" s="56"/>
+      <c r="AG53" s="56"/>
+      <c r="AH53" s="56"/>
+      <c r="AI53" s="37"/>
+      <c r="AJ53" s="41"/>
+      <c r="AK53" s="42"/>
+      <c r="AL53" s="43"/>
+      <c r="AM53" s="43"/>
+      <c r="AN53" s="43"/>
+      <c r="AO53" s="56"/>
+    </row>
+    <row r="54" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD54" s="56"/>
+      <c r="AE54" s="56"/>
+      <c r="AF54" s="56"/>
+      <c r="AG54" s="56"/>
+      <c r="AH54" s="56"/>
+      <c r="AI54" s="56"/>
+      <c r="AJ54" s="56"/>
+      <c r="AK54" s="56"/>
+      <c r="AL54" s="56"/>
+      <c r="AM54" s="56"/>
+      <c r="AN54" s="56"/>
+      <c r="AO54" s="56"/>
+    </row>
+    <row r="55" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD55" s="56"/>
+      <c r="AE55" s="56"/>
+      <c r="AF55" s="56"/>
+      <c r="AG55" s="56"/>
+      <c r="AH55" s="56"/>
+      <c r="AI55" s="61"/>
+      <c r="AJ55" s="62"/>
+      <c r="AK55" s="37"/>
+      <c r="AL55" s="37"/>
+      <c r="AM55" s="55"/>
+      <c r="AN55" s="55"/>
+      <c r="AO55" s="56"/>
+    </row>
+    <row r="56" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD56" s="56"/>
+      <c r="AE56" s="56"/>
+      <c r="AF56" s="56"/>
+      <c r="AG56" s="56"/>
+      <c r="AH56" s="56"/>
+      <c r="AI56" s="61"/>
+      <c r="AJ56" s="62"/>
+      <c r="AK56" s="58"/>
+      <c r="AL56" s="58"/>
+      <c r="AM56" s="58"/>
+      <c r="AN56" s="58"/>
+      <c r="AO56" s="56"/>
+    </row>
+    <row r="57" spans="30:41" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD57" s="56"/>
+      <c r="AE57" s="56"/>
+      <c r="AF57" s="56"/>
+      <c r="AG57" s="56"/>
+      <c r="AH57" s="56"/>
+      <c r="AI57" s="61"/>
+      <c r="AJ57" s="62"/>
+      <c r="AK57" s="59"/>
+      <c r="AL57" s="60"/>
+      <c r="AM57" s="60"/>
+      <c r="AN57" s="60"/>
+      <c r="AO57" s="56"/>
+    </row>
+    <row r="58" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD58" s="56"/>
+      <c r="AE58" s="56"/>
+      <c r="AF58" s="56"/>
+      <c r="AG58" s="56"/>
+      <c r="AH58" s="56"/>
+      <c r="AI58" s="41"/>
+      <c r="AJ58" s="41"/>
+      <c r="AK58" s="43"/>
+      <c r="AL58" s="43"/>
+      <c r="AM58" s="43"/>
+      <c r="AN58" s="43"/>
+      <c r="AO58" s="56"/>
+    </row>
+    <row r="59" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD59" s="56"/>
+      <c r="AE59" s="56"/>
+      <c r="AF59" s="56"/>
+      <c r="AG59" s="56"/>
+      <c r="AH59" s="56"/>
+      <c r="AI59" s="41"/>
+      <c r="AJ59" s="41"/>
+      <c r="AK59" s="43"/>
+      <c r="AL59" s="43"/>
+      <c r="AM59" s="43"/>
+      <c r="AN59" s="43"/>
+      <c r="AO59" s="56"/>
+    </row>
+    <row r="60" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD60" s="56"/>
+      <c r="AE60" s="56"/>
+      <c r="AF60" s="56"/>
+      <c r="AG60" s="56"/>
+      <c r="AH60" s="56"/>
+      <c r="AI60" s="37"/>
+      <c r="AJ60" s="37"/>
+      <c r="AK60" s="43"/>
+      <c r="AL60" s="43"/>
+      <c r="AM60" s="43"/>
+      <c r="AN60" s="43"/>
+      <c r="AO60" s="56"/>
+    </row>
+    <row r="61" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD61" s="56"/>
+      <c r="AE61" s="56"/>
+      <c r="AF61" s="56"/>
+      <c r="AG61" s="56"/>
+      <c r="AH61" s="56"/>
+      <c r="AI61" s="37"/>
+      <c r="AJ61" s="41"/>
+      <c r="AK61" s="43"/>
+      <c r="AL61" s="43"/>
+      <c r="AM61" s="43"/>
+      <c r="AN61" s="43"/>
+      <c r="AO61" s="56"/>
+    </row>
+    <row r="62" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD62" s="56"/>
+      <c r="AE62" s="56"/>
+      <c r="AF62" s="56"/>
+      <c r="AG62" s="56"/>
+      <c r="AH62" s="56"/>
+      <c r="AI62" s="56"/>
+      <c r="AJ62" s="56"/>
+      <c r="AK62" s="56"/>
+      <c r="AL62" s="56"/>
+      <c r="AM62" s="56"/>
+      <c r="AN62" s="56"/>
+      <c r="AO62" s="56"/>
+    </row>
+    <row r="63" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD63" s="56"/>
+      <c r="AE63" s="56"/>
+      <c r="AF63" s="56"/>
+      <c r="AG63" s="56"/>
+      <c r="AH63" s="56"/>
+      <c r="AI63" s="56"/>
+      <c r="AJ63" s="56"/>
+      <c r="AK63" s="56"/>
+      <c r="AL63" s="56"/>
+      <c r="AM63" s="56"/>
+      <c r="AN63" s="56"/>
+      <c r="AO63" s="56"/>
+    </row>
+    <row r="64" spans="30:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD64" s="56"/>
+      <c r="AE64" s="56"/>
+      <c r="AF64" s="56"/>
+      <c r="AG64" s="56"/>
+      <c r="AH64" s="56"/>
+      <c r="AI64" s="56"/>
+      <c r="AJ64" s="56"/>
+      <c r="AK64" s="56"/>
+      <c r="AL64" s="56"/>
+      <c r="AM64" s="56"/>
+      <c r="AN64" s="56"/>
+      <c r="AO64" s="56"/>
+    </row>
+    <row r="65" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="AV73:AZ73"/>
-    <mergeCell ref="AV65:AZ65"/>
-    <mergeCell ref="A1:AI1"/>
+  <mergeCells count="32">
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="T4:Z4"/>
-    <mergeCell ref="D3:S3"/>
-    <mergeCell ref="T3:AI3"/>
-    <mergeCell ref="AA4:AI4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="S3:AH3"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AG6"/>
     <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:AE2"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K4:S4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="AJ65:AN65"/>
-    <mergeCell ref="AP65:AT65"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="AJ55:AJ57"/>
-    <mergeCell ref="AL55:AM55"/>
-    <mergeCell ref="AN55:AO55"/>
-    <mergeCell ref="AJ46:AJ48"/>
-    <mergeCell ref="AL46:AM46"/>
-    <mergeCell ref="AN46:AO46"/>
-    <mergeCell ref="AK55:AK57"/>
-    <mergeCell ref="AK46:AK48"/>
-    <mergeCell ref="AJ45:AO45"/>
-    <mergeCell ref="AJ54:AO54"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="S5:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D945148-AAE0-4EEE-985F-7075704F22F0}">
+  <dimension ref="A1:AH28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:AH31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="97"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="92"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="83"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
+      <c r="B5" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="83"/>
+      <c r="L5" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="83"/>
+      <c r="N5" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH5" s="82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="83"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="35">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8.5198999999999998</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8.9611999999999998</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7">
+        <v>8.7563999999999993</v>
+      </c>
+      <c r="K7" s="7">
+        <v>8.9234000000000009</v>
+      </c>
+      <c r="L7" s="7">
+        <v>9.1134000000000004</v>
+      </c>
+      <c r="M7" s="7">
+        <v>8.9818999999999996</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.188</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="7">
+        <v>16.304400000000001</v>
+      </c>
+      <c r="T7" s="7">
+        <v>16.486599999999999</v>
+      </c>
+      <c r="U7" s="34">
+        <v>0</v>
+      </c>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>19.936</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>19.9146</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>18.751799999999999</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>18.9176</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>0.188</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="35">
+        <v>0.24</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3.6566000000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4.0309999999999997</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3.8466999999999998</v>
+      </c>
+      <c r="K8" s="7">
+        <v>4.0617999999999999</v>
+      </c>
+      <c r="L8" s="7">
+        <v>3.8940999999999999</v>
+      </c>
+      <c r="M8" s="7">
+        <v>3.9441000000000002</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="7">
+        <v>6.891</v>
+      </c>
+      <c r="T8" s="7">
+        <v>7.4348000000000001</v>
+      </c>
+      <c r="U8" s="24">
+        <v>0</v>
+      </c>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>8.7937999999999992</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>8.7248999999999999</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>8.3080999999999996</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>7.8689999999999998</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.64849999999999997</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.64410000000000001</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>1.1909000000000001</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>1.1753</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>1.1094999999999999</v>
+      </c>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="AF9" s="24">
+        <v>0.155</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>1.4504999999999999</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>1.3288</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>1.3798999999999999</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>1.294</v>
+      </c>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="AF10" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.9638</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1.9446000000000001</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1.8012999999999999</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>4.8159999999999998</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>4.3872</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>4.4539999999999997</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>4.1999000000000004</v>
+      </c>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AF11" s="24">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2.2877000000000001</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2.238</v>
+      </c>
+      <c r="L12" s="7">
+        <v>2.3487</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2.3607</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>5.6670999999999996</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>5.1318999999999999</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>5.3026999999999997</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>4.9962999999999997</v>
+      </c>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AF12" s="24">
+        <v>0.108</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C13" s="12">
+        <v>11.8931</v>
+      </c>
+      <c r="D13" s="12">
+        <v>12.122400000000001</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="12">
+        <v>12.7692</v>
+      </c>
+      <c r="K13" s="12">
+        <v>12.327500000000001</v>
+      </c>
+      <c r="L13" s="12">
+        <v>12.488799999999999</v>
+      </c>
+      <c r="M13" s="12">
+        <v>11.545500000000001</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="12">
+        <v>14.611000000000001</v>
+      </c>
+      <c r="T13" s="12">
+        <v>15.1486</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>15.7567</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>14.2964</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>14.9931</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>13.837400000000001</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AG13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.25269999999999998</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>0.2974</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>0.29680000000000001</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AF14" s="24">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="K15" s="6">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.1076</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.1013</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>0.1103</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>0.1087</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>0.1164</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>0.1111</v>
+      </c>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AF15" s="24">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AG15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="35">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C16" s="13">
+        <v>15.230700000000001</v>
+      </c>
+      <c r="D16" s="12">
+        <v>15.8794</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.154</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="14">
+        <v>15.3744</v>
+      </c>
+      <c r="K16" s="13">
+        <v>15.2136</v>
+      </c>
+      <c r="L16" s="13">
+        <v>15.010300000000001</v>
+      </c>
+      <c r="M16" s="13">
+        <v>14.070600000000001</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0.154</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="12">
+        <v>18.652899999999999</v>
+      </c>
+      <c r="T16" s="12">
+        <v>19.4072</v>
+      </c>
+      <c r="U16" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="V16" s="12">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="W16" s="12">
+        <v>0.154</v>
+      </c>
+      <c r="X16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>19.525500000000001</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>19.202500000000001</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>17.069099999999999</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>18.8599</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>0.154</v>
+      </c>
+      <c r="AG16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH16" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="28">
+        <v>14.939500000000001</v>
+      </c>
+      <c r="D17" s="29">
+        <v>15.9551</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F17" s="30">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G17" s="30">
+        <v>0.154</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="31">
+        <v>13.662800000000001</v>
+      </c>
+      <c r="K17" s="28">
+        <v>13.752000000000001</v>
+      </c>
+      <c r="L17" s="28">
+        <v>13.3429</v>
+      </c>
+      <c r="M17" s="28">
+        <v>13.536799999999999</v>
+      </c>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="32">
+        <v>18.9712</v>
+      </c>
+      <c r="T17" s="29">
+        <v>19.6126</v>
+      </c>
+      <c r="U17" s="29">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="V17" s="29">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="W17" s="29">
+        <v>0.154</v>
+      </c>
+      <c r="X17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="28">
+        <v>18.937200000000001</v>
+      </c>
+      <c r="AA17" s="28">
+        <v>19.0989</v>
+      </c>
+      <c r="AB17" s="32">
+        <v>17.856100000000001</v>
+      </c>
+      <c r="AC17" s="28">
+        <v>17.753299999999999</v>
+      </c>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AF17" s="33">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AG17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH17" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>13.0855</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="7">
+        <v>11.4129</v>
+      </c>
+      <c r="K18" s="7">
+        <v>13.067500000000001</v>
+      </c>
+      <c r="L18" s="7">
+        <v>12.104699999999999</v>
+      </c>
+      <c r="M18" s="7">
+        <v>10.985099999999999</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18" s="7">
+        <v>16.796800000000001</v>
+      </c>
+      <c r="T18" s="7">
+        <v>16.9024</v>
+      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>15.630100000000001</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>14.213900000000001</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>15.605600000000001</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>14.2798</v>
+      </c>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7">
+        <v>14.7342</v>
+      </c>
+      <c r="D19" s="7">
+        <v>15.1958</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="7">
+        <v>18.772400000000001</v>
+      </c>
+      <c r="T19" s="7">
+        <v>19.378299999999999</v>
+      </c>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="7">
+        <v>31.8306</v>
+      </c>
+      <c r="D20" s="7">
+        <v>32.3917</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="7">
+        <v>34.744</v>
+      </c>
+      <c r="K20" s="7">
+        <v>37.397399999999998</v>
+      </c>
+      <c r="L20" s="6">
+        <v>28.7925</v>
+      </c>
+      <c r="M20" s="6">
+        <v>28.678000000000001</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="7">
+        <v>36.867600000000003</v>
+      </c>
+      <c r="T20" s="7">
+        <v>38.462299999999999</v>
+      </c>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>47.109900000000003</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>35.758699999999997</v>
+      </c>
+      <c r="AB20" s="15">
+        <v>53.032899999999998</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>40.878900000000002</v>
+      </c>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="26">
+        <v>1E-3</v>
+      </c>
+      <c r="AF20" s="26">
+        <v>1E-3</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B21" s="38"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="S3:AH3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3617702-49D9-40DE-A1C2-4B67878F3783}">
+  <dimension ref="A1:R54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+    </row>
+    <row r="4" spans="1:18" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="56"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="56"/>
+    </row>
+    <row r="6" spans="1:18" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="83"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="113"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="56"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>8.9611999999999998</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8.9234000000000009</v>
+      </c>
+      <c r="E7" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="7">
+        <v>16.486599999999999</v>
+      </c>
+      <c r="G7" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="7">
+        <v>19.9146</v>
+      </c>
+      <c r="I7" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="56"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4.0309999999999997</v>
+      </c>
+      <c r="C8" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4.0617999999999999</v>
+      </c>
+      <c r="E8" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="7">
+        <v>7.4348000000000001</v>
+      </c>
+      <c r="G8" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8.7248999999999999</v>
+      </c>
+      <c r="I8" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="56"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="E9" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.1753</v>
+      </c>
+      <c r="I9" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="56"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="E10" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
+        <v>1.3288</v>
+      </c>
+      <c r="I10" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="56"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1.9446000000000001</v>
+      </c>
+      <c r="E11" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4.3872</v>
+      </c>
+      <c r="I11" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="56"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2.238</v>
+      </c>
+      <c r="E12" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5.1318999999999999</v>
+      </c>
+      <c r="I12" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="56"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="12">
+        <v>12.122400000000001</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="12">
+        <v>12.327500000000001</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="12">
+        <v>15.1486</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="12">
+        <v>14.2964</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="56"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.25269999999999998</v>
+      </c>
+      <c r="E14" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="I14" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="56"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="E15" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.1087</v>
+      </c>
+      <c r="I15" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="56"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="12">
+        <v>15.8794</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="13">
+        <v>15.2136</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="12">
+        <v>19.4072</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="14">
+        <v>19.202500000000001</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="56"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="29">
+        <v>15.9551</v>
+      </c>
+      <c r="C17" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="28">
+        <v>13.752000000000001</v>
+      </c>
+      <c r="E17" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="29">
+        <v>19.6126</v>
+      </c>
+      <c r="G17" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="28">
+        <v>19.0989</v>
+      </c>
+      <c r="I17" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="56"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="7">
+        <v>13.0855</v>
+      </c>
+      <c r="C18" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="7">
+        <v>13.067500000000001</v>
+      </c>
+      <c r="E18" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="7">
+        <v>16.9024</v>
+      </c>
+      <c r="G18" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="7">
+        <v>14.213900000000001</v>
+      </c>
+      <c r="I18" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="56"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="7">
+        <v>15.1958</v>
+      </c>
+      <c r="C19" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7">
+        <v>19.378299999999999</v>
+      </c>
+      <c r="G19" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>32.3917</v>
+      </c>
+      <c r="C20" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="7">
+        <v>37.397399999999998</v>
+      </c>
+      <c r="E20" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="7">
+        <v>38.462299999999999</v>
+      </c>
+      <c r="G20" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="7">
+        <v>35.758699999999997</v>
+      </c>
+      <c r="I20" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="56"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F21" s="5"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="108" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="7">
+        <v>8.9611999999999998</v>
+      </c>
+      <c r="C32" s="7">
+        <v>8.9234000000000009</v>
+      </c>
+      <c r="D32" s="7">
+        <v>16.486599999999999</v>
+      </c>
+      <c r="E32" s="7">
+        <v>19.9146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4.0309999999999997</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4.0617999999999999</v>
+      </c>
+      <c r="D33" s="7">
+        <v>7.4348000000000001</v>
+      </c>
+      <c r="E33" s="7">
+        <v>8.7248999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1.1753</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1.3288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1.9446000000000001</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="6">
+        <v>4.3872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2.238</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="6">
+        <v>5.1318999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="12">
+        <v>12.122400000000001</v>
+      </c>
+      <c r="C38" s="12">
+        <v>12.327500000000001</v>
+      </c>
+      <c r="D38" s="12">
+        <v>15.1486</v>
+      </c>
+      <c r="E38" s="12">
+        <v>14.2964</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.25269999999999998</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.27250000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="6">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.1087</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="12">
+        <v>15.8794</v>
+      </c>
+      <c r="C41" s="13">
+        <v>15.2136</v>
+      </c>
+      <c r="D41" s="12">
+        <v>19.4072</v>
+      </c>
+      <c r="E41" s="14">
+        <v>19.202500000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="29">
+        <v>15.9551</v>
+      </c>
+      <c r="C42" s="28">
+        <v>13.752000000000001</v>
+      </c>
+      <c r="D42" s="29">
+        <v>19.6126</v>
+      </c>
+      <c r="E42" s="28">
+        <v>19.0989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="7">
+        <v>13.0855</v>
+      </c>
+      <c r="C43" s="7">
+        <v>13.067500000000001</v>
+      </c>
+      <c r="D43" s="7">
+        <v>16.9024</v>
+      </c>
+      <c r="E43" s="7">
+        <v>14.213900000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="7">
+        <v>15.1958</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="7">
+        <v>19.378299999999999</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="7">
+        <v>32.3917</v>
+      </c>
+      <c r="C45" s="7">
+        <v>37.397399999999998</v>
+      </c>
+      <c r="D45" s="7">
+        <v>38.462299999999999</v>
+      </c>
+      <c r="E45" s="7">
+        <v>35.758699999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>